--- a/stocks.xlsx
+++ b/stocks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\STONKS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{768DDA57-7E03-4D36-AD81-E753765BB1CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4AED44-8AA9-490F-ADE7-090ED27C9E0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="25920" windowHeight="16749" xr2:uid="{CBAFAEDA-D884-425D-A394-5B0E6F9BBCED}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{CBAFAEDA-D884-425D-A394-5B0E6F9BBCED}"/>
   </bookViews>
   <sheets>
     <sheet name="stock" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3191" uniqueCount="1223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3188" uniqueCount="1223">
   <si>
     <t>Symbol</t>
   </si>
@@ -4203,23 +4203,23 @@
   <dimension ref="A1:I506"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.53515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.69140625" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.3046875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.3046875" customWidth="1"/>
-    <col min="6" max="6" width="31.69140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.84375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="47.3828125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.3046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="47.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>1131</v>
       </c>
@@ -4248,7 +4248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>5</v>
       </c>
@@ -4275,7 +4275,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>10</v>
       </c>
@@ -4300,7 +4300,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>13</v>
       </c>
@@ -4327,7 +4327,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>17</v>
       </c>
@@ -4354,7 +4354,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>20</v>
       </c>
@@ -4379,7 +4379,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>22</v>
       </c>
@@ -4404,7 +4404,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>26</v>
       </c>
@@ -4429,7 +4429,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
@@ -4456,7 +4456,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>33</v>
       </c>
@@ -4481,7 +4481,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>36</v>
       </c>
@@ -4506,7 +4506,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>38</v>
       </c>
@@ -4531,7 +4531,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>42</v>
       </c>
@@ -4556,7 +4556,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>45</v>
       </c>
@@ -4581,7 +4581,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>49</v>
       </c>
@@ -4606,7 +4606,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>51</v>
       </c>
@@ -4631,7 +4631,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>53</v>
       </c>
@@ -4656,7 +4656,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>57</v>
       </c>
@@ -4681,7 +4681,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>60</v>
       </c>
@@ -4706,7 +4706,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>63</v>
       </c>
@@ -4731,7 +4731,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>66</v>
       </c>
@@ -4756,7 +4756,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>70</v>
       </c>
@@ -4781,7 +4781,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>73</v>
       </c>
@@ -4806,7 +4806,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
         <v>75</v>
       </c>
@@ -4831,7 +4831,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
         <v>78</v>
       </c>
@@ -4856,7 +4856,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
         <v>80</v>
       </c>
@@ -4881,7 +4881,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
         <v>83</v>
       </c>
@@ -4906,7 +4906,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
         <v>85</v>
       </c>
@@ -4931,7 +4931,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
         <v>88</v>
       </c>
@@ -4956,7 +4956,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
         <v>91</v>
       </c>
@@ -4983,7 +4983,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
         <v>94</v>
       </c>
@@ -5010,7 +5010,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
         <v>96</v>
       </c>
@@ -5020,9 +5020,7 @@
       <c r="C32" s="2">
         <v>1002910</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>1134</v>
-      </c>
+      <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="21" t="s">
         <v>97</v>
@@ -5037,7 +5035,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
         <v>99</v>
       </c>
@@ -5062,7 +5060,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
         <v>101</v>
       </c>
@@ -5087,7 +5085,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
         <v>103</v>
       </c>
@@ -5112,7 +5110,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
         <v>106</v>
       </c>
@@ -5137,7 +5135,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
         <v>109</v>
       </c>
@@ -5162,7 +5160,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
         <v>112</v>
       </c>
@@ -5187,7 +5185,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
         <v>115</v>
       </c>
@@ -5212,7 +5210,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
         <v>118</v>
       </c>
@@ -5237,7 +5235,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
         <v>121</v>
       </c>
@@ -5262,7 +5260,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
         <v>124</v>
       </c>
@@ -5287,7 +5285,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="s">
         <v>127</v>
       </c>
@@ -5312,7 +5310,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
         <v>129</v>
       </c>
@@ -5337,7 +5335,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="15" t="s">
         <v>131</v>
       </c>
@@ -5362,7 +5360,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="15" t="s">
         <v>134</v>
       </c>
@@ -5387,7 +5385,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
         <v>137</v>
       </c>
@@ -5412,7 +5410,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="15" t="s">
         <v>141</v>
       </c>
@@ -5439,7 +5437,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="15" t="s">
         <v>144</v>
       </c>
@@ -5464,7 +5462,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="15" t="s">
         <v>147</v>
       </c>
@@ -5489,7 +5487,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="15" t="s">
         <v>150</v>
       </c>
@@ -5514,7 +5512,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
         <v>153</v>
       </c>
@@ -5539,7 +5537,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="15" t="s">
         <v>155</v>
       </c>
@@ -5564,7 +5562,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="15" t="s">
         <v>158</v>
       </c>
@@ -5589,7 +5587,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="15" t="s">
         <v>161</v>
       </c>
@@ -5614,7 +5612,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="15" t="s">
         <v>164</v>
       </c>
@@ -5641,7 +5639,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="15" t="s">
         <v>166</v>
       </c>
@@ -5666,7 +5664,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="15" t="s">
         <v>169</v>
       </c>
@@ -5691,7 +5689,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="15" t="s">
         <v>172</v>
       </c>
@@ -5716,7 +5714,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="15" t="s">
         <v>174</v>
       </c>
@@ -5741,7 +5739,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="15" t="s">
         <v>177</v>
       </c>
@@ -5768,7 +5766,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="15" t="s">
         <v>180</v>
       </c>
@@ -5793,7 +5791,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="15" t="s">
         <v>183</v>
       </c>
@@ -5818,7 +5816,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="15" t="s">
         <v>185</v>
       </c>
@@ -5843,7 +5841,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="15" t="s">
         <v>187</v>
       </c>
@@ -5868,7 +5866,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="15" t="s">
         <v>189</v>
       </c>
@@ -5893,7 +5891,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="15" t="s">
         <v>192</v>
       </c>
@@ -5918,7 +5916,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="15" t="s">
         <v>195</v>
       </c>
@@ -5943,7 +5941,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="15" t="s">
         <v>198</v>
       </c>
@@ -5968,7 +5966,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="15" t="s">
         <v>200</v>
       </c>
@@ -5993,7 +5991,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="15" t="s">
         <v>202</v>
       </c>
@@ -6018,7 +6016,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="15" t="s">
         <v>204</v>
       </c>
@@ -6043,7 +6041,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="15" t="s">
         <v>206</v>
       </c>
@@ -6068,7 +6066,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="15" t="s">
         <v>209</v>
       </c>
@@ -6093,7 +6091,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="15" t="s">
         <v>211</v>
       </c>
@@ -6118,7 +6116,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="15" t="s">
         <v>213</v>
       </c>
@@ -6143,7 +6141,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="15" t="s">
         <v>215</v>
       </c>
@@ -6168,7 +6166,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="15" t="s">
         <v>217</v>
       </c>
@@ -6193,7 +6191,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="15" t="s">
         <v>219</v>
       </c>
@@ -6218,7 +6216,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="15" t="s">
         <v>221</v>
       </c>
@@ -6243,7 +6241,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="15" t="s">
         <v>223</v>
       </c>
@@ -6268,7 +6266,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="15" t="s">
         <v>225</v>
       </c>
@@ -6293,7 +6291,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="15" t="s">
         <v>228</v>
       </c>
@@ -6318,7 +6316,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="15" t="s">
         <v>231</v>
       </c>
@@ -6343,7 +6341,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="15" t="s">
         <v>233</v>
       </c>
@@ -6368,7 +6366,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="15" t="s">
         <v>236</v>
       </c>
@@ -6393,7 +6391,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="15" t="s">
         <v>239</v>
       </c>
@@ -6418,7 +6416,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="15" t="s">
         <v>241</v>
       </c>
@@ -6443,7 +6441,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="15" t="s">
         <v>243</v>
       </c>
@@ -6468,7 +6466,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="15" t="s">
         <v>245</v>
       </c>
@@ -6493,7 +6491,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="15" t="s">
         <v>248</v>
       </c>
@@ -6518,7 +6516,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="15" t="s">
         <v>250</v>
       </c>
@@ -6543,7 +6541,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="15" t="s">
         <v>252</v>
       </c>
@@ -6570,7 +6568,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="15" t="s">
         <v>255</v>
       </c>
@@ -6595,7 +6593,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="15" t="s">
         <v>258</v>
       </c>
@@ -6620,7 +6618,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="15" t="s">
         <v>260</v>
       </c>
@@ -6645,7 +6643,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="15" t="s">
         <v>262</v>
       </c>
@@ -6670,7 +6668,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="15" t="s">
         <v>264</v>
       </c>
@@ -6695,7 +6693,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="15" t="s">
         <v>266</v>
       </c>
@@ -6720,7 +6718,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="15" t="s">
         <v>268</v>
       </c>
@@ -6745,7 +6743,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="15" t="s">
         <v>270</v>
       </c>
@@ -6770,7 +6768,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="15" t="s">
         <v>273</v>
       </c>
@@ -6795,7 +6793,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="15" t="s">
         <v>276</v>
       </c>
@@ -6820,7 +6818,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="15" t="s">
         <v>278</v>
       </c>
@@ -6845,7 +6843,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="15" t="s">
         <v>281</v>
       </c>
@@ -6870,7 +6868,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="15" t="s">
         <v>284</v>
       </c>
@@ -6895,7 +6893,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="15" t="s">
         <v>287</v>
       </c>
@@ -6920,7 +6918,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="15" t="s">
         <v>290</v>
       </c>
@@ -6945,7 +6943,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="15" t="s">
         <v>292</v>
       </c>
@@ -6970,7 +6968,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="15" t="s">
         <v>295</v>
       </c>
@@ -6995,7 +6993,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="15" t="s">
         <v>297</v>
       </c>
@@ -7020,7 +7018,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="15" t="s">
         <v>299</v>
       </c>
@@ -7045,7 +7043,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="15" t="s">
         <v>302</v>
       </c>
@@ -7072,7 +7070,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="15" t="s">
         <v>304</v>
       </c>
@@ -7082,9 +7080,7 @@
       <c r="C114" s="2">
         <v>831001</v>
       </c>
-      <c r="D114" s="2" t="s">
-        <v>1134</v>
-      </c>
+      <c r="D114" s="2"/>
       <c r="E114" s="2"/>
       <c r="F114" s="21" t="s">
         <v>305</v>
@@ -7099,7 +7095,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="15" t="s">
         <v>306</v>
       </c>
@@ -7124,7 +7120,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="15" t="s">
         <v>309</v>
       </c>
@@ -7149,7 +7145,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="15" t="s">
         <v>311</v>
       </c>
@@ -7174,7 +7170,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="15" t="s">
         <v>313</v>
       </c>
@@ -7199,7 +7195,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="15" t="s">
         <v>315</v>
       </c>
@@ -7224,7 +7220,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="15" t="s">
         <v>317</v>
       </c>
@@ -7249,7 +7245,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="15" t="s">
         <v>320</v>
       </c>
@@ -7274,7 +7270,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="15" t="s">
         <v>322</v>
       </c>
@@ -7299,7 +7295,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="15" t="s">
         <v>324</v>
       </c>
@@ -7324,7 +7320,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="15" t="s">
         <v>326</v>
       </c>
@@ -7349,7 +7345,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="15" t="s">
         <v>328</v>
       </c>
@@ -7374,7 +7370,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="15" t="s">
         <v>330</v>
       </c>
@@ -7399,7 +7395,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="15" t="s">
         <v>332</v>
       </c>
@@ -7424,7 +7420,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="15" t="s">
         <v>334</v>
       </c>
@@ -7449,7 +7445,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="15" t="s">
         <v>336</v>
       </c>
@@ -7474,7 +7470,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="15" t="s">
         <v>338</v>
       </c>
@@ -7499,7 +7495,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="15" t="s">
         <v>340</v>
       </c>
@@ -7524,7 +7520,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="15" t="s">
         <v>342</v>
       </c>
@@ -7551,7 +7547,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="15" t="s">
         <v>344</v>
       </c>
@@ -7578,7 +7574,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="15" t="s">
         <v>347</v>
       </c>
@@ -7603,7 +7599,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="15" t="s">
         <v>349</v>
       </c>
@@ -7628,7 +7624,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="15" t="s">
         <v>351</v>
       </c>
@@ -7653,7 +7649,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="15" t="s">
         <v>353</v>
       </c>
@@ -7678,7 +7674,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="15" t="s">
         <v>356</v>
       </c>
@@ -7703,7 +7699,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="15" t="s">
         <v>359</v>
       </c>
@@ -7728,7 +7724,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="15" t="s">
         <v>362</v>
       </c>
@@ -7753,7 +7749,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="15" t="s">
         <v>364</v>
       </c>
@@ -7778,7 +7774,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="15" t="s">
         <v>366</v>
       </c>
@@ -7803,7 +7799,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="15" t="s">
         <v>369</v>
       </c>
@@ -7828,7 +7824,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="15" t="s">
         <v>372</v>
       </c>
@@ -7853,7 +7849,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="15" t="s">
         <v>374</v>
       </c>
@@ -7878,7 +7874,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="15" t="s">
         <v>376</v>
       </c>
@@ -7903,7 +7899,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="15" t="s">
         <v>378</v>
       </c>
@@ -7928,7 +7924,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="15" t="s">
         <v>380</v>
       </c>
@@ -7953,7 +7949,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="15" t="s">
         <v>382</v>
       </c>
@@ -7978,7 +7974,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="15" t="s">
         <v>384</v>
       </c>
@@ -8003,7 +7999,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="15" t="s">
         <v>386</v>
       </c>
@@ -8028,7 +8024,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="15" t="s">
         <v>389</v>
       </c>
@@ -8053,7 +8049,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="15" t="s">
         <v>391</v>
       </c>
@@ -8078,7 +8074,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="15" t="s">
         <v>393</v>
       </c>
@@ -8103,7 +8099,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="15" t="s">
         <v>396</v>
       </c>
@@ -8128,7 +8124,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="15" t="s">
         <v>398</v>
       </c>
@@ -8153,7 +8149,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="15" t="s">
         <v>400</v>
       </c>
@@ -8178,7 +8174,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="15" t="s">
         <v>402</v>
       </c>
@@ -8203,7 +8199,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="15" t="s">
         <v>404</v>
       </c>
@@ -8228,7 +8224,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="15" t="s">
         <v>407</v>
       </c>
@@ -8253,7 +8249,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="15" t="s">
         <v>408</v>
       </c>
@@ -8263,9 +8259,7 @@
       <c r="C161" s="2">
         <v>1326160</v>
       </c>
-      <c r="D161" s="2" t="s">
-        <v>1134</v>
-      </c>
+      <c r="D161" s="2"/>
       <c r="E161" s="2"/>
       <c r="F161" s="21" t="s">
         <v>409</v>
@@ -8280,7 +8274,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="15" t="s">
         <v>410</v>
       </c>
@@ -8307,7 +8301,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="15" t="s">
         <v>413</v>
       </c>
@@ -8332,7 +8326,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="15" t="s">
         <v>415</v>
       </c>
@@ -8357,7 +8351,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="15" t="s">
         <v>417</v>
       </c>
@@ -8382,7 +8376,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="15" t="s">
         <v>420</v>
       </c>
@@ -8407,7 +8401,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="15" t="s">
         <v>422</v>
       </c>
@@ -8432,7 +8426,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="15" t="s">
         <v>424</v>
       </c>
@@ -8457,7 +8451,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="15" t="s">
         <v>426</v>
       </c>
@@ -8482,7 +8476,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="15" t="s">
         <v>428</v>
       </c>
@@ -8507,7 +8501,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="15" t="s">
         <v>430</v>
       </c>
@@ -8532,7 +8526,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="15" t="s">
         <v>432</v>
       </c>
@@ -8559,7 +8553,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="15" t="s">
         <v>434</v>
       </c>
@@ -8584,7 +8578,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="15" t="s">
         <v>436</v>
       </c>
@@ -8609,7 +8603,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="15" t="s">
         <v>438</v>
       </c>
@@ -8634,7 +8628,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="15" t="s">
         <v>440</v>
       </c>
@@ -8659,7 +8653,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="15" t="s">
         <v>441</v>
       </c>
@@ -8684,7 +8678,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="15" t="s">
         <v>444</v>
       </c>
@@ -8711,7 +8705,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="15" t="s">
         <v>446</v>
       </c>
@@ -8736,7 +8730,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="15" t="s">
         <v>448</v>
       </c>
@@ -8761,7 +8755,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="15" t="s">
         <v>450</v>
       </c>
@@ -8786,7 +8780,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="15" t="s">
         <v>453</v>
       </c>
@@ -8811,7 +8805,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="15" t="s">
         <v>455</v>
       </c>
@@ -8836,7 +8830,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="15" t="s">
         <v>458</v>
       </c>
@@ -8861,7 +8855,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="15" t="s">
         <v>460</v>
       </c>
@@ -8886,7 +8880,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="15" t="s">
         <v>462</v>
       </c>
@@ -8911,7 +8905,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="15" t="s">
         <v>464</v>
       </c>
@@ -8936,7 +8930,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="15" t="s">
         <v>466</v>
       </c>
@@ -8961,7 +8955,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="15" t="s">
         <v>468</v>
       </c>
@@ -8986,7 +8980,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="15" t="s">
         <v>470</v>
       </c>
@@ -9011,7 +9005,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="15" t="s">
         <v>472</v>
       </c>
@@ -9036,7 +9030,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" s="15" t="s">
         <v>474</v>
       </c>
@@ -9061,7 +9055,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="15" t="s">
         <v>476</v>
       </c>
@@ -9086,7 +9080,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="15" t="s">
         <v>478</v>
       </c>
@@ -9111,7 +9105,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="15" t="s">
         <v>481</v>
       </c>
@@ -9136,7 +9130,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="15" t="s">
         <v>483</v>
       </c>
@@ -9161,7 +9155,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="15" t="s">
         <v>485</v>
       </c>
@@ -9186,7 +9180,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="15" t="s">
         <v>487</v>
       </c>
@@ -9211,7 +9205,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="15" t="s">
         <v>489</v>
       </c>
@@ -9236,7 +9230,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="15" t="s">
         <v>490</v>
       </c>
@@ -9261,7 +9255,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="15" t="s">
         <v>492</v>
       </c>
@@ -9286,7 +9280,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="15" t="s">
         <v>494</v>
       </c>
@@ -9311,7 +9305,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="15" t="s">
         <v>495</v>
       </c>
@@ -9336,7 +9330,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="15" t="s">
         <v>498</v>
       </c>
@@ -9361,7 +9355,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="15" t="s">
         <v>501</v>
       </c>
@@ -9386,7 +9380,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="15" t="s">
         <v>503</v>
       </c>
@@ -9411,7 +9405,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="15" t="s">
         <v>505</v>
       </c>
@@ -9436,7 +9430,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="15" t="s">
         <v>508</v>
       </c>
@@ -9461,7 +9455,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="15" t="s">
         <v>510</v>
       </c>
@@ -9486,7 +9480,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" s="15" t="s">
         <v>512</v>
       </c>
@@ -9511,7 +9505,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="15" t="s">
         <v>515</v>
       </c>
@@ -9536,7 +9530,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="15" t="s">
         <v>518</v>
       </c>
@@ -9561,7 +9555,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="15" t="s">
         <v>521</v>
       </c>
@@ -9586,7 +9580,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="15" t="s">
         <v>523</v>
       </c>
@@ -9611,7 +9605,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="15" t="s">
         <v>524</v>
       </c>
@@ -9636,7 +9630,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="15" t="s">
         <v>526</v>
       </c>
@@ -9661,7 +9655,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" s="15" t="s">
         <v>528</v>
       </c>
@@ -9686,7 +9680,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" s="15" t="s">
         <v>530</v>
       </c>
@@ -9711,7 +9705,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="15" t="s">
         <v>532</v>
       </c>
@@ -9736,7 +9730,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="15" t="s">
         <v>534</v>
       </c>
@@ -9761,7 +9755,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="15" t="s">
         <v>536</v>
       </c>
@@ -9786,7 +9780,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="15" t="s">
         <v>538</v>
       </c>
@@ -9811,7 +9805,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="15" t="s">
         <v>539</v>
       </c>
@@ -9836,7 +9830,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="15" t="s">
         <v>541</v>
       </c>
@@ -9861,7 +9855,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="15" t="s">
         <v>543</v>
       </c>
@@ -9886,7 +9880,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="15" t="s">
         <v>545</v>
       </c>
@@ -9911,7 +9905,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="15" t="s">
         <v>547</v>
       </c>
@@ -9936,7 +9930,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="15" t="s">
         <v>550</v>
       </c>
@@ -9961,7 +9955,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="15" t="s">
         <v>552</v>
       </c>
@@ -9986,7 +9980,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="15" t="s">
         <v>555</v>
       </c>
@@ -10011,7 +10005,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="15" t="s">
         <v>557</v>
       </c>
@@ -10036,7 +10030,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" s="15" t="s">
         <v>559</v>
       </c>
@@ -10061,7 +10055,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" s="15" t="s">
         <v>561</v>
       </c>
@@ -10086,7 +10080,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" s="15" t="s">
         <v>563</v>
       </c>
@@ -10111,7 +10105,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" s="15" t="s">
         <v>565</v>
       </c>
@@ -10136,7 +10130,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" s="15" t="s">
         <v>567</v>
       </c>
@@ -10161,7 +10155,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" s="15" t="s">
         <v>570</v>
       </c>
@@ -10188,7 +10182,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" s="15" t="s">
         <v>572</v>
       </c>
@@ -10213,7 +10207,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" s="15" t="s">
         <v>574</v>
       </c>
@@ -10238,7 +10232,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" s="15" t="s">
         <v>577</v>
       </c>
@@ -10263,7 +10257,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" s="15" t="s">
         <v>579</v>
       </c>
@@ -10288,7 +10282,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" s="15" t="s">
         <v>581</v>
       </c>
@@ -10313,7 +10307,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" s="15" t="s">
         <v>583</v>
       </c>
@@ -10338,7 +10332,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" s="15" t="s">
         <v>585</v>
       </c>
@@ -10363,7 +10357,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" s="15" t="s">
         <v>587</v>
       </c>
@@ -10388,7 +10382,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" s="15" t="s">
         <v>589</v>
       </c>
@@ -10413,7 +10407,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" s="15" t="s">
         <v>591</v>
       </c>
@@ -10438,7 +10432,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="15" t="s">
         <v>593</v>
       </c>
@@ -10463,7 +10457,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" s="15" t="s">
         <v>595</v>
       </c>
@@ -10488,7 +10482,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="15" t="s">
         <v>597</v>
       </c>
@@ -10513,7 +10507,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" s="15" t="s">
         <v>599</v>
       </c>
@@ -10538,7 +10532,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" s="15" t="s">
         <v>601</v>
       </c>
@@ -10565,7 +10559,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" s="15" t="s">
         <v>603</v>
       </c>
@@ -10590,7 +10584,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" s="15" t="s">
         <v>605</v>
       </c>
@@ -10615,7 +10609,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" s="15" t="s">
         <v>606</v>
       </c>
@@ -10640,7 +10634,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" s="15" t="s">
         <v>608</v>
       </c>
@@ -10665,7 +10659,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" s="15" t="s">
         <v>611</v>
       </c>
@@ -10690,7 +10684,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" s="15" t="s">
         <v>613</v>
       </c>
@@ -10715,7 +10709,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" s="15" t="s">
         <v>615</v>
       </c>
@@ -10740,7 +10734,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" s="15" t="s">
         <v>617</v>
       </c>
@@ -10765,7 +10759,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" s="15" t="s">
         <v>619</v>
       </c>
@@ -10790,7 +10784,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" s="15" t="s">
         <v>622</v>
       </c>
@@ -10815,7 +10809,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" s="15" t="s">
         <v>624</v>
       </c>
@@ -10840,7 +10834,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" s="15" t="s">
         <v>626</v>
       </c>
@@ -10865,7 +10859,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" s="15" t="s">
         <v>628</v>
       </c>
@@ -10890,7 +10884,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" s="15" t="s">
         <v>631</v>
       </c>
@@ -10915,7 +10909,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" s="15" t="s">
         <v>634</v>
       </c>
@@ -10940,7 +10934,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" s="15" t="s">
         <v>636</v>
       </c>
@@ -10965,7 +10959,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" s="15" t="s">
         <v>638</v>
       </c>
@@ -10990,7 +10984,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" s="15" t="s">
         <v>640</v>
       </c>
@@ -11015,7 +11009,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" s="15" t="s">
         <v>642</v>
       </c>
@@ -11040,7 +11034,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" s="15" t="s">
         <v>644</v>
       </c>
@@ -11065,7 +11059,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" s="15" t="s">
         <v>646</v>
       </c>
@@ -11090,7 +11084,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" s="15" t="s">
         <v>648</v>
       </c>
@@ -11115,7 +11109,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" s="15" t="s">
         <v>651</v>
       </c>
@@ -11140,7 +11134,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" s="15" t="s">
         <v>653</v>
       </c>
@@ -11165,7 +11159,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" s="15" t="s">
         <v>655</v>
       </c>
@@ -11190,7 +11184,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" s="15" t="s">
         <v>658</v>
       </c>
@@ -11215,7 +11209,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" s="15" t="s">
         <v>660</v>
       </c>
@@ -11240,7 +11234,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" s="15" t="s">
         <v>662</v>
       </c>
@@ -11265,7 +11259,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" s="15" t="s">
         <v>665</v>
       </c>
@@ -11290,7 +11284,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" s="15" t="s">
         <v>667</v>
       </c>
@@ -11315,7 +11309,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" s="15" t="s">
         <v>669</v>
       </c>
@@ -11340,7 +11334,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" s="15" t="s">
         <v>671</v>
       </c>
@@ -11365,7 +11359,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" s="15" t="s">
         <v>673</v>
       </c>
@@ -11390,7 +11384,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" s="15" t="s">
         <v>675</v>
       </c>
@@ -11415,7 +11409,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" s="15" t="s">
         <v>677</v>
       </c>
@@ -11440,7 +11434,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" s="15" t="s">
         <v>679</v>
       </c>
@@ -11465,7 +11459,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" s="15" t="s">
         <v>681</v>
       </c>
@@ -11490,7 +11484,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" s="15" t="s">
         <v>683</v>
       </c>
@@ -11515,7 +11509,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" s="15" t="s">
         <v>685</v>
       </c>
@@ -11540,7 +11534,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" s="15" t="s">
         <v>687</v>
       </c>
@@ -11565,7 +11559,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" s="15" t="s">
         <v>690</v>
       </c>
@@ -11590,7 +11584,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" s="15" t="s">
         <v>692</v>
       </c>
@@ -11615,7 +11609,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" s="15" t="s">
         <v>694</v>
       </c>
@@ -11640,7 +11634,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" s="15" t="s">
         <v>696</v>
       </c>
@@ -11665,7 +11659,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" s="15" t="s">
         <v>699</v>
       </c>
@@ -11690,7 +11684,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" s="15" t="s">
         <v>701</v>
       </c>
@@ -11715,7 +11709,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" s="15" t="s">
         <v>703</v>
       </c>
@@ -11740,7 +11734,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" s="15" t="s">
         <v>705</v>
       </c>
@@ -11765,7 +11759,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301" s="15" t="s">
         <v>708</v>
       </c>
@@ -11790,7 +11784,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302" s="15" t="s">
         <v>710</v>
       </c>
@@ -11815,7 +11809,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303" s="15" t="s">
         <v>712</v>
       </c>
@@ -11840,7 +11834,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304" s="15" t="s">
         <v>714</v>
       </c>
@@ -11865,7 +11859,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" s="15" t="s">
         <v>717</v>
       </c>
@@ -11890,7 +11884,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306" s="15" t="s">
         <v>719</v>
       </c>
@@ -11917,7 +11911,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307" s="15" t="s">
         <v>721</v>
       </c>
@@ -11942,7 +11936,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308" s="15" t="s">
         <v>723</v>
       </c>
@@ -11967,7 +11961,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309" s="15" t="s">
         <v>725</v>
       </c>
@@ -11994,7 +11988,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310" s="15" t="s">
         <v>727</v>
       </c>
@@ -12019,7 +12013,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311" s="15" t="s">
         <v>729</v>
       </c>
@@ -12044,7 +12038,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312" s="15" t="s">
         <v>731</v>
       </c>
@@ -12069,7 +12063,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313" s="15" t="s">
         <v>733</v>
       </c>
@@ -12094,7 +12088,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314" s="15" t="s">
         <v>735</v>
       </c>
@@ -12119,7 +12113,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315" s="15" t="s">
         <v>737</v>
       </c>
@@ -12144,7 +12138,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316" s="15" t="s">
         <v>739</v>
       </c>
@@ -12169,7 +12163,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317" s="15" t="s">
         <v>741</v>
       </c>
@@ -12194,7 +12188,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318" s="15" t="s">
         <v>743</v>
       </c>
@@ -12221,7 +12215,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319" s="15" t="s">
         <v>745</v>
       </c>
@@ -12248,7 +12242,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320" s="15" t="s">
         <v>747</v>
       </c>
@@ -12273,7 +12267,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321" s="15" t="s">
         <v>749</v>
       </c>
@@ -12298,7 +12292,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322" s="15" t="s">
         <v>751</v>
       </c>
@@ -12323,7 +12317,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323" s="15" t="s">
         <v>754</v>
       </c>
@@ -12348,7 +12342,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324" s="15" t="s">
         <v>757</v>
       </c>
@@ -12373,7 +12367,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325" s="15" t="s">
         <v>759</v>
       </c>
@@ -12398,7 +12392,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326" s="15" t="s">
         <v>761</v>
       </c>
@@ -12423,7 +12417,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327" s="15" t="s">
         <v>763</v>
       </c>
@@ -12448,7 +12442,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328" s="15" t="s">
         <v>765</v>
       </c>
@@ -12473,7 +12467,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329" s="15" t="s">
         <v>767</v>
       </c>
@@ -12498,7 +12492,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330" s="15" t="s">
         <v>769</v>
       </c>
@@ -12523,7 +12517,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331" s="15" t="s">
         <v>771</v>
       </c>
@@ -12548,7 +12542,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332" s="15" t="s">
         <v>772</v>
       </c>
@@ -12573,7 +12567,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333" s="15" t="s">
         <v>774</v>
       </c>
@@ -12598,7 +12592,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334" s="15" t="s">
         <v>776</v>
       </c>
@@ -12623,7 +12617,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335" s="15" t="s">
         <v>778</v>
       </c>
@@ -12648,7 +12642,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336" s="15" t="s">
         <v>781</v>
       </c>
@@ -12673,7 +12667,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337" s="15" t="s">
         <v>784</v>
       </c>
@@ -12698,7 +12692,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338" s="15" t="s">
         <v>787</v>
       </c>
@@ -12723,7 +12717,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A339" s="15" t="s">
         <v>789</v>
       </c>
@@ -12748,7 +12742,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A340" s="15" t="s">
         <v>791</v>
       </c>
@@ -12773,7 +12767,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A341" s="15" t="s">
         <v>793</v>
       </c>
@@ -12798,7 +12792,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A342" s="15" t="s">
         <v>796</v>
       </c>
@@ -12823,7 +12817,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A343" s="15" t="s">
         <v>798</v>
       </c>
@@ -12848,7 +12842,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A344" s="15" t="s">
         <v>800</v>
       </c>
@@ -12873,7 +12867,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A345" s="15" t="s">
         <v>802</v>
       </c>
@@ -12898,7 +12892,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A346" s="15" t="s">
         <v>804</v>
       </c>
@@ -12923,7 +12917,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A347" s="15" t="s">
         <v>806</v>
       </c>
@@ -12948,7 +12942,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A348" s="15" t="s">
         <v>808</v>
       </c>
@@ -12973,7 +12967,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A349" s="15" t="s">
         <v>810</v>
       </c>
@@ -13000,7 +12994,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A350" s="15" t="s">
         <v>813</v>
       </c>
@@ -13027,7 +13021,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A351" s="15" t="s">
         <v>815</v>
       </c>
@@ -13052,7 +13046,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A352" s="15" t="s">
         <v>816</v>
       </c>
@@ -13077,7 +13071,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A353" s="15" t="s">
         <v>818</v>
       </c>
@@ -13102,7 +13096,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A354" s="15" t="s">
         <v>820</v>
       </c>
@@ -13127,7 +13121,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A355" s="15" t="s">
         <v>822</v>
       </c>
@@ -13152,7 +13146,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A356" s="15" t="s">
         <v>824</v>
       </c>
@@ -13177,7 +13171,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A357" s="15" t="s">
         <v>826</v>
       </c>
@@ -13202,7 +13196,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A358" s="15" t="s">
         <v>828</v>
       </c>
@@ -13229,7 +13223,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A359" s="15" t="s">
         <v>830</v>
       </c>
@@ -13254,7 +13248,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A360" s="15" t="s">
         <v>832</v>
       </c>
@@ -13279,7 +13273,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A361" s="15" t="s">
         <v>834</v>
       </c>
@@ -13304,7 +13298,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A362" s="15" t="s">
         <v>836</v>
       </c>
@@ -13329,7 +13323,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A363" s="15" t="s">
         <v>838</v>
       </c>
@@ -13354,7 +13348,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A364" s="15" t="s">
         <v>840</v>
       </c>
@@ -13379,7 +13373,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A365" s="15" t="s">
         <v>842</v>
       </c>
@@ -13404,7 +13398,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A366" s="15" t="s">
         <v>844</v>
       </c>
@@ -13431,7 +13425,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A367" s="15" t="s">
         <v>846</v>
       </c>
@@ -13456,7 +13450,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A368" s="15" t="s">
         <v>848</v>
       </c>
@@ -13481,7 +13475,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A369" s="15" t="s">
         <v>850</v>
       </c>
@@ -13506,7 +13500,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A370" s="15" t="s">
         <v>853</v>
       </c>
@@ -13531,7 +13525,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A371" s="15" t="s">
         <v>855</v>
       </c>
@@ -13556,7 +13550,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A372" s="15" t="s">
         <v>857</v>
       </c>
@@ -13581,7 +13575,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A373" s="15" t="s">
         <v>859</v>
       </c>
@@ -13606,7 +13600,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A374" s="15" t="s">
         <v>861</v>
       </c>
@@ -13631,7 +13625,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A375" s="15" t="s">
         <v>863</v>
       </c>
@@ -13656,7 +13650,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A376" s="15" t="s">
         <v>865</v>
       </c>
@@ -13681,7 +13675,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A377" s="15" t="s">
         <v>867</v>
       </c>
@@ -13706,7 +13700,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A378" s="15" t="s">
         <v>869</v>
       </c>
@@ -13731,7 +13725,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A379" s="15" t="s">
         <v>871</v>
       </c>
@@ -13756,7 +13750,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A380" s="15" t="s">
         <v>873</v>
       </c>
@@ -13781,7 +13775,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A381" s="15" t="s">
         <v>874</v>
       </c>
@@ -13806,7 +13800,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A382" s="15" t="s">
         <v>876</v>
       </c>
@@ -13833,7 +13827,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A383" s="15" t="s">
         <v>878</v>
       </c>
@@ -13858,7 +13852,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A384" s="15" t="s">
         <v>880</v>
       </c>
@@ -13883,7 +13877,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A385" s="15" t="s">
         <v>882</v>
       </c>
@@ -13908,7 +13902,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A386" s="15" t="s">
         <v>884</v>
       </c>
@@ -13933,7 +13927,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A387" s="15" t="s">
         <v>886</v>
       </c>
@@ -13958,7 +13952,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A388" s="15" t="s">
         <v>887</v>
       </c>
@@ -13983,7 +13977,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A389" s="15" t="s">
         <v>889</v>
       </c>
@@ -14008,7 +14002,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A390" s="15" t="s">
         <v>891</v>
       </c>
@@ -14033,7 +14027,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A391" s="15" t="s">
         <v>892</v>
       </c>
@@ -14058,7 +14052,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A392" s="15" t="s">
         <v>894</v>
       </c>
@@ -14083,7 +14077,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A393" s="15" t="s">
         <v>896</v>
       </c>
@@ -14108,7 +14102,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A394" s="15" t="s">
         <v>898</v>
       </c>
@@ -14133,7 +14127,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A395" s="15" t="s">
         <v>900</v>
       </c>
@@ -14158,7 +14152,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A396" s="15" t="s">
         <v>902</v>
       </c>
@@ -14183,7 +14177,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A397" s="15" t="s">
         <v>904</v>
       </c>
@@ -14210,7 +14204,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A398" s="15" t="s">
         <v>906</v>
       </c>
@@ -14235,7 +14229,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A399" s="15" t="s">
         <v>908</v>
       </c>
@@ -14260,7 +14254,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A400" s="15" t="s">
         <v>910</v>
       </c>
@@ -14285,7 +14279,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A401" s="15" t="s">
         <v>912</v>
       </c>
@@ -14310,7 +14304,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A402" s="15" t="s">
         <v>914</v>
       </c>
@@ -14335,7 +14329,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A403" s="15" t="s">
         <v>917</v>
       </c>
@@ -14360,7 +14354,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A404" s="15" t="s">
         <v>919</v>
       </c>
@@ -14385,7 +14379,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A405" s="15" t="s">
         <v>922</v>
       </c>
@@ -14412,7 +14406,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A406" s="15" t="s">
         <v>924</v>
       </c>
@@ -14437,7 +14431,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A407" s="15" t="s">
         <v>926</v>
       </c>
@@ -14462,7 +14456,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A408" s="15" t="s">
         <v>928</v>
       </c>
@@ -14487,7 +14481,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A409" s="15" t="s">
         <v>930</v>
       </c>
@@ -14512,7 +14506,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A410" s="15" t="s">
         <v>932</v>
       </c>
@@ -14537,7 +14531,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A411" s="15" t="s">
         <v>934</v>
       </c>
@@ -14564,7 +14558,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A412" s="15" t="s">
         <v>936</v>
       </c>
@@ -14589,7 +14583,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A413" s="15" t="s">
         <v>938</v>
       </c>
@@ -14614,7 +14608,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A414" s="15" t="s">
         <v>940</v>
       </c>
@@ -14641,7 +14635,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A415" s="15" t="s">
         <v>942</v>
       </c>
@@ -14666,7 +14660,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A416" s="15" t="s">
         <v>944</v>
       </c>
@@ -14691,7 +14685,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A417" s="15" t="s">
         <v>946</v>
       </c>
@@ -14716,7 +14710,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A418" s="15" t="s">
         <v>948</v>
       </c>
@@ -14741,7 +14735,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A419" s="15" t="s">
         <v>950</v>
       </c>
@@ -14766,7 +14760,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A420" s="15" t="s">
         <v>952</v>
       </c>
@@ -14791,7 +14785,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A421" s="15" t="s">
         <v>954</v>
       </c>
@@ -14816,7 +14810,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A422" s="15" t="s">
         <v>956</v>
       </c>
@@ -14841,7 +14835,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A423" s="15" t="s">
         <v>958</v>
       </c>
@@ -14866,7 +14860,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A424" s="15" t="s">
         <v>960</v>
       </c>
@@ -14891,7 +14885,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A425" s="15" t="s">
         <v>962</v>
       </c>
@@ -14916,7 +14910,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A426" s="15" t="s">
         <v>964</v>
       </c>
@@ -14941,7 +14935,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A427" s="15" t="s">
         <v>966</v>
       </c>
@@ -14966,7 +14960,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A428" s="15" t="s">
         <v>968</v>
       </c>
@@ -14991,7 +14985,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A429" s="15" t="s">
         <v>970</v>
       </c>
@@ -15016,7 +15010,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A430" s="15" t="s">
         <v>972</v>
       </c>
@@ -15041,7 +15035,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="431" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A431" s="15" t="s">
         <v>974</v>
       </c>
@@ -15066,7 +15060,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="432" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A432" s="15" t="s">
         <v>976</v>
       </c>
@@ -15091,7 +15085,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="433" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A433" s="15" t="s">
         <v>978</v>
       </c>
@@ -15116,7 +15110,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="434" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A434" s="15" t="s">
         <v>980</v>
       </c>
@@ -15143,7 +15137,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="435" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A435" s="15" t="s">
         <v>983</v>
       </c>
@@ -15168,7 +15162,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="436" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A436" s="15" t="s">
         <v>986</v>
       </c>
@@ -15193,7 +15187,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="437" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A437" s="15" t="s">
         <v>988</v>
       </c>
@@ -15218,7 +15212,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="438" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A438" s="15" t="s">
         <v>990</v>
       </c>
@@ -15243,7 +15237,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="439" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A439" s="15" t="s">
         <v>992</v>
       </c>
@@ -15270,7 +15264,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="440" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A440" s="15" t="s">
         <v>994</v>
       </c>
@@ -15295,7 +15289,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="441" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A441" s="15" t="s">
         <v>996</v>
       </c>
@@ -15320,7 +15314,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="442" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A442" s="15" t="s">
         <v>998</v>
       </c>
@@ -15345,7 +15339,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="443" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A443" s="15" t="s">
         <v>1000</v>
       </c>
@@ -15370,7 +15364,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="444" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A444" s="15" t="s">
         <v>1002</v>
       </c>
@@ -15395,7 +15389,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="445" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A445" s="15" t="s">
         <v>1004</v>
       </c>
@@ -15422,7 +15416,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="446" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A446" s="15" t="s">
         <v>1006</v>
       </c>
@@ -15447,7 +15441,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="447" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A447" s="15" t="s">
         <v>1008</v>
       </c>
@@ -15472,7 +15466,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="448" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A448" s="15" t="s">
         <v>1010</v>
       </c>
@@ -15497,7 +15491,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="449" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A449" s="15" t="s">
         <v>1012</v>
       </c>
@@ -15522,7 +15516,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="450" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A450" s="15" t="s">
         <v>1014</v>
       </c>
@@ -15547,7 +15541,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="451" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A451" s="15" t="s">
         <v>1016</v>
       </c>
@@ -15572,7 +15566,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="452" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A452" s="15" t="s">
         <v>1018</v>
       </c>
@@ -15597,7 +15591,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="453" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A453" s="15" t="s">
         <v>1020</v>
       </c>
@@ -15622,7 +15616,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="454" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A454" s="15" t="s">
         <v>1022</v>
       </c>
@@ -15647,7 +15641,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="455" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A455" s="15" t="s">
         <v>1024</v>
       </c>
@@ -15672,7 +15666,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="456" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A456" s="15" t="s">
         <v>1026</v>
       </c>
@@ -15697,7 +15691,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="457" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A457" s="15" t="s">
         <v>1028</v>
       </c>
@@ -15722,7 +15716,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="458" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A458" s="15" t="s">
         <v>1030</v>
       </c>
@@ -15749,7 +15743,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="459" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A459" s="15" t="s">
         <v>1031</v>
       </c>
@@ -15774,7 +15768,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="460" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A460" s="15" t="s">
         <v>1033</v>
       </c>
@@ -15799,7 +15793,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="461" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A461" s="15" t="s">
         <v>1035</v>
       </c>
@@ -15824,7 +15818,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="462" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A462" s="15" t="s">
         <v>1037</v>
       </c>
@@ -15849,7 +15843,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="463" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A463" s="15" t="s">
         <v>1039</v>
       </c>
@@ -15874,7 +15868,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="464" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A464" s="15" t="s">
         <v>1041</v>
       </c>
@@ -15899,7 +15893,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="465" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A465" s="15" t="s">
         <v>1043</v>
       </c>
@@ -15924,7 +15918,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="466" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A466" s="15" t="s">
         <v>1045</v>
       </c>
@@ -15949,7 +15943,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="467" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A467" s="15" t="s">
         <v>1047</v>
       </c>
@@ -15974,7 +15968,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="468" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A468" s="15" t="s">
         <v>1050</v>
       </c>
@@ -15999,7 +15993,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="469" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A469" s="15" t="s">
         <v>1052</v>
       </c>
@@ -16024,7 +16018,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="470" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A470" s="15" t="s">
         <v>1054</v>
       </c>
@@ -16049,7 +16043,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="471" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A471" s="15" t="s">
         <v>1056</v>
       </c>
@@ -16074,7 +16068,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="472" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A472" s="15" t="s">
         <v>1058</v>
       </c>
@@ -16099,7 +16093,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="473" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A473" s="15" t="s">
         <v>1060</v>
       </c>
@@ -16124,7 +16118,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="474" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A474" s="15" t="s">
         <v>1062</v>
       </c>
@@ -16149,7 +16143,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="475" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="475" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A475" s="15" t="s">
         <v>1064</v>
       </c>
@@ -16174,7 +16168,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="476" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="476" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A476" s="15" t="s">
         <v>1066</v>
       </c>
@@ -16199,7 +16193,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="477" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A477" s="15" t="s">
         <v>1068</v>
       </c>
@@ -16224,7 +16218,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="478" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="478" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A478" s="15" t="s">
         <v>1070</v>
       </c>
@@ -16251,7 +16245,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="479" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="479" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A479" s="15" t="s">
         <v>1072</v>
       </c>
@@ -16276,7 +16270,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="480" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A480" s="15" t="s">
         <v>1074</v>
       </c>
@@ -16301,7 +16295,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="481" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A481" s="15" t="s">
         <v>1076</v>
       </c>
@@ -16326,7 +16320,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="482" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="482" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A482" s="15" t="s">
         <v>1078</v>
       </c>
@@ -16351,7 +16345,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="483" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A483" s="15" t="s">
         <v>1080</v>
       </c>
@@ -16376,7 +16370,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="484" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A484" s="15" t="s">
         <v>1082</v>
       </c>
@@ -16401,7 +16395,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="485" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A485" s="15" t="s">
         <v>1085</v>
       </c>
@@ -16426,7 +16420,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="486" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A486" s="15" t="s">
         <v>1087</v>
       </c>
@@ -16451,7 +16445,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="487" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A487" s="15" t="s">
         <v>1089</v>
       </c>
@@ -16476,7 +16470,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="488" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="488" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A488" s="15" t="s">
         <v>1091</v>
       </c>
@@ -16501,7 +16495,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="489" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A489" s="15" t="s">
         <v>1093</v>
       </c>
@@ -16526,7 +16520,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="490" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A490" s="15" t="s">
         <v>1095</v>
       </c>
@@ -16551,7 +16545,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="491" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A491" s="15" t="s">
         <v>1097</v>
       </c>
@@ -16576,7 +16570,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="492" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A492" s="15" t="s">
         <v>1099</v>
       </c>
@@ -16603,7 +16597,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="493" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A493" s="15" t="s">
         <v>1101</v>
       </c>
@@ -16628,7 +16622,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="494" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A494" s="15" t="s">
         <v>1103</v>
       </c>
@@ -16653,7 +16647,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="495" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A495" s="15" t="s">
         <v>1105</v>
       </c>
@@ -16678,7 +16672,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="496" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A496" s="15" t="s">
         <v>1108</v>
       </c>
@@ -16703,7 +16697,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="497" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="497" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A497" s="15" t="s">
         <v>1110</v>
       </c>
@@ -16728,7 +16722,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="498" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="498" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A498" s="15" t="s">
         <v>1112</v>
       </c>
@@ -16753,7 +16747,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="499" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A499" s="15" t="s">
         <v>1114</v>
       </c>
@@ -16778,7 +16772,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="500" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="500" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A500" s="15" t="s">
         <v>1116</v>
       </c>
@@ -16803,7 +16797,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="501" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="501" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A501" s="15" t="s">
         <v>1118</v>
       </c>
@@ -16828,7 +16822,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="502" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="502" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A502" s="15" t="s">
         <v>1120</v>
       </c>
@@ -16853,7 +16847,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="503" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="503" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A503" s="15" t="s">
         <v>1122</v>
       </c>
@@ -16878,7 +16872,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="504" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="504" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A504" s="15" t="s">
         <v>1124</v>
       </c>
@@ -16903,7 +16897,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="505" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="505" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A505" s="15" t="s">
         <v>1126</v>
       </c>
@@ -16928,7 +16922,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="506" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="506" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A506" s="15" t="s">
         <v>1128</v>
       </c>
@@ -17984,18 +17978,18 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.53515625" customWidth="1"/>
-    <col min="2" max="2" width="8.69140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.84375" customWidth="1"/>
-    <col min="5" max="5" width="31.15234375" customWidth="1"/>
-    <col min="6" max="6" width="35.3046875" customWidth="1"/>
-    <col min="10" max="10" width="43.15234375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.53515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="31.140625" customWidth="1"/>
+    <col min="6" max="6" width="35.28515625" customWidth="1"/>
+    <col min="10" max="10" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1196</v>
       </c>
@@ -18021,7 +18015,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1200</v>
       </c>
@@ -18050,7 +18044,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1201</v>
       </c>
@@ -18067,7 +18061,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F4" t="s">
         <v>1204</v>
       </c>
@@ -18081,7 +18075,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1197</v>
       </c>
@@ -18101,7 +18095,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1198</v>
       </c>
@@ -18127,7 +18121,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1199</v>
       </c>
@@ -18141,7 +18135,7 @@
         <v>155767</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
         <v>1205</v>
       </c>
@@ -18155,7 +18149,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
         <v>1206</v>
       </c>
@@ -18169,7 +18163,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1218</v>
       </c>
@@ -18191,15 +18185,15 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.15234375" style="8"/>
+    <col min="1" max="1" width="9.140625" style="8"/>
     <col min="2" max="2" width="40" style="8" customWidth="1"/>
-    <col min="3" max="3" width="25.69140625" style="8" customWidth="1"/>
-    <col min="4" max="16384" width="9.15234375" style="8"/>
+    <col min="3" max="3" width="25.7109375" style="8" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -18213,7 +18207,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1143</v>
       </c>
@@ -18227,7 +18221,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>1145</v>
       </c>
@@ -18241,7 +18235,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>1147</v>
       </c>
@@ -18255,7 +18249,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>1149</v>
       </c>
@@ -18269,7 +18263,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>1151</v>
       </c>
@@ -18300,15 +18294,15 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.3046875" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.3828125" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.53515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.15234375" style="15"/>
+    <col min="1" max="1" width="8.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -18319,7 +18313,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>1179</v>
       </c>
@@ -18330,7 +18324,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>1181</v>
       </c>
@@ -18341,7 +18335,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>1182</v>
       </c>
@@ -18352,7 +18346,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>1183</v>
       </c>
@@ -18363,7 +18357,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>1185</v>
       </c>
@@ -18374,7 +18368,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>1186</v>
       </c>
@@ -18385,7 +18379,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>1188</v>
       </c>
@@ -18396,7 +18390,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>1189</v>
       </c>
@@ -18407,7 +18401,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>1191</v>
       </c>
@@ -18418,7 +18412,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>1192</v>
       </c>
@@ -18429,7 +18423,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>1193</v>
       </c>
@@ -18440,40 +18434,40 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C13" s="17"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C14" s="17"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C15" s="17"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C16" s="17"/>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="17"/>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="17"/>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="17"/>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" s="17"/>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" s="17"/>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" s="17"/>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" s="17"/>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" s="17"/>
     </row>
   </sheetData>
@@ -18493,18 +18487,18 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.15234375" style="5"/>
-    <col min="2" max="2" width="54.84375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="32.15234375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="17.3046875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.3046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.3046875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.69140625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="2" width="54.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="32.140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -18518,7 +18512,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1136</v>
       </c>
@@ -18532,7 +18526,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>1138</v>
       </c>
@@ -18546,78 +18540,78 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4"/>
       <c r="B4"/>
       <c r="C4"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5"/>
       <c r="B5"/>
       <c r="C5"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6"/>
       <c r="B6"/>
       <c r="C6"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8"/>
       <c r="B8"/>
       <c r="C8"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
     </row>
-    <row r="17" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="18" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="19" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="20" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="21" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="22" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="23" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -18635,12 +18629,12 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="42.3046875" customWidth="1"/>
+    <col min="2" max="2" width="42.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -18654,7 +18648,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>1160</v>
       </c>
@@ -18668,7 +18662,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>1161</v>
       </c>
@@ -18682,7 +18676,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>1162</v>
       </c>
@@ -18696,7 +18690,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>1142</v>
       </c>
@@ -18710,7 +18704,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>1163</v>
       </c>
@@ -18724,7 +18718,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>1164</v>
       </c>
@@ -18738,7 +18732,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>1165</v>
       </c>
@@ -18752,7 +18746,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>1166</v>
       </c>
@@ -18766,7 +18760,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>1167</v>
       </c>
@@ -18780,7 +18774,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>1140</v>
       </c>
@@ -18794,7 +18788,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>1141</v>
       </c>
@@ -18825,12 +18819,12 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.3828125" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -18844,7 +18838,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1154</v>
       </c>
@@ -18855,7 +18849,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1156</v>
       </c>
@@ -18866,7 +18860,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1158</v>
       </c>

--- a/stocks.xlsx
+++ b/stocks.xlsx
@@ -8,20 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\STONKS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4AED44-8AA9-490F-ADE7-090ED27C9E0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22EA5CB9-4B11-4B89-A234-CAD5C04FD9C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{CBAFAEDA-D884-425D-A394-5B0E6F9BBCED}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="25920" windowHeight="16749" activeTab="5" xr2:uid="{CBAFAEDA-D884-425D-A394-5B0E6F9BBCED}"/>
   </bookViews>
   <sheets>
     <sheet name="stock" sheetId="1" r:id="rId1"/>
-    <sheet name="interest fields" sheetId="10" r:id="rId2"/>
-    <sheet name="bond" sheetId="2" r:id="rId3"/>
-    <sheet name="commodity" sheetId="3" r:id="rId4"/>
-    <sheet name="international" sheetId="5" r:id="rId5"/>
-    <sheet name="sectors" sheetId="9" r:id="rId6"/>
-    <sheet name="full market" sheetId="6" state="hidden" r:id="rId7"/>
+    <sheet name="bond" sheetId="2" r:id="rId2"/>
+    <sheet name="commodity" sheetId="3" r:id="rId3"/>
+    <sheet name="international" sheetId="5" r:id="rId4"/>
+    <sheet name="sectors" sheetId="9" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="13" r:id="rId7"/>
+    <sheet name="full market" sheetId="6" state="hidden" r:id="rId8"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Sheet1!$A$1:$C$20</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">stock!$A$1:$I$506</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3188" uniqueCount="1223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3325" uniqueCount="1210">
   <si>
     <t>Symbol</t>
   </si>
@@ -3633,91 +3635,55 @@
     <t>Created</t>
   </si>
   <si>
-    <t>Income statement</t>
-  </si>
-  <si>
-    <t>Net income</t>
-  </si>
-  <si>
-    <t>Shares</t>
-  </si>
-  <si>
-    <t>EPS (calc)</t>
-  </si>
-  <si>
-    <t>Net sales</t>
-  </si>
-  <si>
-    <t>Operating expenses</t>
-  </si>
-  <si>
-    <t>Balance sheet</t>
-  </si>
-  <si>
-    <t>total revenue</t>
-  </si>
-  <si>
-    <t>Total assets</t>
-  </si>
-  <si>
-    <t>Total liabilities</t>
-  </si>
-  <si>
-    <t>Total SH equity</t>
-  </si>
-  <si>
-    <t>Long term debt</t>
-  </si>
-  <si>
-    <t>Total current liabilities</t>
-  </si>
-  <si>
-    <t>Total current assets</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>total costs, except taxes, other</t>
-  </si>
-  <si>
-    <t>consists of above two plus accounts receivable</t>
-  </si>
-  <si>
-    <t>current assets + PPE, goodwill, intangibles, etc</t>
-  </si>
-  <si>
-    <t>short term debt, accounts payable, etc</t>
-  </si>
-  <si>
-    <t>current + long term + pension/retirement, etc</t>
-  </si>
-  <si>
-    <t>total assets - total liabilities</t>
-  </si>
-  <si>
-    <t>use script to generate template based on downloaded reports</t>
-  </si>
-  <si>
-    <t>example2</t>
-  </si>
-  <si>
-    <t>take home (pre dividend)</t>
-  </si>
-  <si>
-    <t>(calc noncurrent assets)</t>
-  </si>
-  <si>
     <t>DONE</t>
+  </si>
+  <si>
+    <t>BLV best</t>
+  </si>
+  <si>
+    <t>indiv sharpe</t>
+  </si>
+  <si>
+    <t>total stonk</t>
+  </si>
+  <si>
+    <t>overall value?</t>
+  </si>
+  <si>
+    <t>10 year, 1000 best</t>
+  </si>
+  <si>
+    <t>5 year, 1000 best</t>
+  </si>
+  <si>
+    <t>1 year, 1000 best</t>
+  </si>
+  <si>
+    <t>10 year weight</t>
+  </si>
+  <si>
+    <t>5 year weight</t>
+  </si>
+  <si>
+    <t>1 year weight</t>
+  </si>
+  <si>
+    <t>cash</t>
+  </si>
+  <si>
+    <t>weighted</t>
+  </si>
+  <si>
+    <t>total port:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3836,7 +3802,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3885,6 +3851,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4202,24 +4175,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42016F04-2A3D-4C42-8D0A-62D4416A392A}">
   <dimension ref="A1:I506"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.53515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.69140625" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
-    <col min="6" max="6" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="47.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.3046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.3046875" customWidth="1"/>
+    <col min="6" max="6" width="31.69140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.84375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="47.3828125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.3046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="19" t="s">
         <v>1131</v>
       </c>
@@ -4233,7 +4206,7 @@
         <v>1133</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>1222</v>
+        <v>1196</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1132</v>
@@ -4248,7 +4221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="15" t="s">
         <v>5</v>
       </c>
@@ -4275,7 +4248,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="15" t="s">
         <v>10</v>
       </c>
@@ -4300,7 +4273,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="15" t="s">
         <v>13</v>
       </c>
@@ -4327,7 +4300,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="15" t="s">
         <v>17</v>
       </c>
@@ -4354,7 +4327,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="15" t="s">
         <v>20</v>
       </c>
@@ -4379,7 +4352,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="15" t="s">
         <v>22</v>
       </c>
@@ -4404,7 +4377,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="15" t="s">
         <v>26</v>
       </c>
@@ -4429,7 +4402,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
@@ -4456,7 +4429,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="15" t="s">
         <v>33</v>
       </c>
@@ -4481,7 +4454,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="15" t="s">
         <v>36</v>
       </c>
@@ -4506,7 +4479,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="15" t="s">
         <v>38</v>
       </c>
@@ -4531,7 +4504,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="15" t="s">
         <v>42</v>
       </c>
@@ -4556,7 +4529,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="15" t="s">
         <v>45</v>
       </c>
@@ -4581,7 +4554,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="15" t="s">
         <v>49</v>
       </c>
@@ -4606,7 +4579,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="15" t="s">
         <v>51</v>
       </c>
@@ -4631,7 +4604,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="15" t="s">
         <v>53</v>
       </c>
@@ -4656,7 +4629,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="15" t="s">
         <v>57</v>
       </c>
@@ -4681,7 +4654,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="15" t="s">
         <v>60</v>
       </c>
@@ -4706,7 +4679,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="15" t="s">
         <v>63</v>
       </c>
@@ -4731,7 +4704,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="15" t="s">
         <v>66</v>
       </c>
@@ -4756,7 +4729,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="15" t="s">
         <v>70</v>
       </c>
@@ -4781,7 +4754,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="15" t="s">
         <v>73</v>
       </c>
@@ -4806,7 +4779,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="15" t="s">
         <v>75</v>
       </c>
@@ -4831,7 +4804,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="15" t="s">
         <v>78</v>
       </c>
@@ -4856,7 +4829,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="15" t="s">
         <v>80</v>
       </c>
@@ -4881,7 +4854,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="15" t="s">
         <v>83</v>
       </c>
@@ -4906,7 +4879,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="15" t="s">
         <v>85</v>
       </c>
@@ -4931,7 +4904,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" s="15" t="s">
         <v>88</v>
       </c>
@@ -4956,7 +4929,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="15" t="s">
         <v>91</v>
       </c>
@@ -4983,7 +4956,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" s="15" t="s">
         <v>94</v>
       </c>
@@ -5010,7 +4983,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" s="15" t="s">
         <v>96</v>
       </c>
@@ -5035,7 +5008,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33" s="15" t="s">
         <v>99</v>
       </c>
@@ -5060,7 +5033,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A34" s="15" t="s">
         <v>101</v>
       </c>
@@ -5085,7 +5058,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35" s="15" t="s">
         <v>103</v>
       </c>
@@ -5110,7 +5083,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A36" s="15" t="s">
         <v>106</v>
       </c>
@@ -5135,7 +5108,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A37" s="15" t="s">
         <v>109</v>
       </c>
@@ -5160,7 +5133,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A38" s="15" t="s">
         <v>112</v>
       </c>
@@ -5185,7 +5158,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A39" s="15" t="s">
         <v>115</v>
       </c>
@@ -5210,7 +5183,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A40" s="15" t="s">
         <v>118</v>
       </c>
@@ -5235,7 +5208,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A41" s="15" t="s">
         <v>121</v>
       </c>
@@ -5260,7 +5233,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A42" s="15" t="s">
         <v>124</v>
       </c>
@@ -5285,7 +5258,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A43" s="15" t="s">
         <v>127</v>
       </c>
@@ -5310,7 +5283,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A44" s="15" t="s">
         <v>129</v>
       </c>
@@ -5335,7 +5308,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A45" s="15" t="s">
         <v>131</v>
       </c>
@@ -5360,7 +5333,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A46" s="15" t="s">
         <v>134</v>
       </c>
@@ -5385,7 +5358,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A47" s="15" t="s">
         <v>137</v>
       </c>
@@ -5410,7 +5383,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A48" s="15" t="s">
         <v>141</v>
       </c>
@@ -5437,7 +5410,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A49" s="15" t="s">
         <v>144</v>
       </c>
@@ -5462,7 +5435,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A50" s="15" t="s">
         <v>147</v>
       </c>
@@ -5487,7 +5460,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A51" s="15" t="s">
         <v>150</v>
       </c>
@@ -5512,7 +5485,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A52" s="15" t="s">
         <v>153</v>
       </c>
@@ -5537,7 +5510,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A53" s="15" t="s">
         <v>155</v>
       </c>
@@ -5562,7 +5535,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A54" s="15" t="s">
         <v>158</v>
       </c>
@@ -5587,7 +5560,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A55" s="15" t="s">
         <v>161</v>
       </c>
@@ -5612,7 +5585,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A56" s="15" t="s">
         <v>164</v>
       </c>
@@ -5639,7 +5612,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A57" s="15" t="s">
         <v>166</v>
       </c>
@@ -5664,7 +5637,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A58" s="15" t="s">
         <v>169</v>
       </c>
@@ -5689,7 +5662,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A59" s="15" t="s">
         <v>172</v>
       </c>
@@ -5714,7 +5687,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A60" s="15" t="s">
         <v>174</v>
       </c>
@@ -5739,7 +5712,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A61" s="15" t="s">
         <v>177</v>
       </c>
@@ -5766,7 +5739,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A62" s="15" t="s">
         <v>180</v>
       </c>
@@ -5791,7 +5764,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A63" s="15" t="s">
         <v>183</v>
       </c>
@@ -5816,7 +5789,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A64" s="15" t="s">
         <v>185</v>
       </c>
@@ -5841,7 +5814,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A65" s="15" t="s">
         <v>187</v>
       </c>
@@ -5866,7 +5839,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A66" s="15" t="s">
         <v>189</v>
       </c>
@@ -5891,7 +5864,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A67" s="15" t="s">
         <v>192</v>
       </c>
@@ -5916,7 +5889,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A68" s="15" t="s">
         <v>195</v>
       </c>
@@ -5941,7 +5914,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A69" s="15" t="s">
         <v>198</v>
       </c>
@@ -5966,7 +5939,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A70" s="15" t="s">
         <v>200</v>
       </c>
@@ -5991,7 +5964,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A71" s="15" t="s">
         <v>202</v>
       </c>
@@ -6016,7 +5989,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A72" s="15" t="s">
         <v>204</v>
       </c>
@@ -6041,7 +6014,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A73" s="15" t="s">
         <v>206</v>
       </c>
@@ -6066,7 +6039,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A74" s="15" t="s">
         <v>209</v>
       </c>
@@ -6091,7 +6064,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A75" s="15" t="s">
         <v>211</v>
       </c>
@@ -6116,7 +6089,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A76" s="15" t="s">
         <v>213</v>
       </c>
@@ -6141,7 +6114,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A77" s="15" t="s">
         <v>215</v>
       </c>
@@ -6166,7 +6139,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A78" s="15" t="s">
         <v>217</v>
       </c>
@@ -6191,7 +6164,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A79" s="15" t="s">
         <v>219</v>
       </c>
@@ -6216,7 +6189,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A80" s="15" t="s">
         <v>221</v>
       </c>
@@ -6241,7 +6214,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A81" s="15" t="s">
         <v>223</v>
       </c>
@@ -6266,7 +6239,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A82" s="15" t="s">
         <v>225</v>
       </c>
@@ -6291,7 +6264,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A83" s="15" t="s">
         <v>228</v>
       </c>
@@ -6316,7 +6289,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A84" s="15" t="s">
         <v>231</v>
       </c>
@@ -6341,7 +6314,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A85" s="15" t="s">
         <v>233</v>
       </c>
@@ -6366,7 +6339,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A86" s="15" t="s">
         <v>236</v>
       </c>
@@ -6391,7 +6364,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A87" s="15" t="s">
         <v>239</v>
       </c>
@@ -6416,7 +6389,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A88" s="15" t="s">
         <v>241</v>
       </c>
@@ -6441,7 +6414,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A89" s="15" t="s">
         <v>243</v>
       </c>
@@ -6466,7 +6439,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A90" s="15" t="s">
         <v>245</v>
       </c>
@@ -6491,7 +6464,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A91" s="15" t="s">
         <v>248</v>
       </c>
@@ -6516,7 +6489,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A92" s="15" t="s">
         <v>250</v>
       </c>
@@ -6541,7 +6514,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A93" s="15" t="s">
         <v>252</v>
       </c>
@@ -6568,7 +6541,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A94" s="15" t="s">
         <v>255</v>
       </c>
@@ -6593,7 +6566,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A95" s="15" t="s">
         <v>258</v>
       </c>
@@ -6618,7 +6591,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A96" s="15" t="s">
         <v>260</v>
       </c>
@@ -6643,7 +6616,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A97" s="15" t="s">
         <v>262</v>
       </c>
@@ -6668,7 +6641,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A98" s="15" t="s">
         <v>264</v>
       </c>
@@ -6693,7 +6666,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A99" s="15" t="s">
         <v>266</v>
       </c>
@@ -6718,7 +6691,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A100" s="15" t="s">
         <v>268</v>
       </c>
@@ -6743,7 +6716,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A101" s="15" t="s">
         <v>270</v>
       </c>
@@ -6768,7 +6741,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A102" s="15" t="s">
         <v>273</v>
       </c>
@@ -6793,7 +6766,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A103" s="15" t="s">
         <v>276</v>
       </c>
@@ -6818,7 +6791,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A104" s="15" t="s">
         <v>278</v>
       </c>
@@ -6843,7 +6816,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A105" s="15" t="s">
         <v>281</v>
       </c>
@@ -6868,7 +6841,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A106" s="15" t="s">
         <v>284</v>
       </c>
@@ -6893,7 +6866,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A107" s="15" t="s">
         <v>287</v>
       </c>
@@ -6918,7 +6891,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A108" s="15" t="s">
         <v>290</v>
       </c>
@@ -6943,7 +6916,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A109" s="15" t="s">
         <v>292</v>
       </c>
@@ -6968,7 +6941,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A110" s="15" t="s">
         <v>295</v>
       </c>
@@ -6993,7 +6966,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A111" s="15" t="s">
         <v>297</v>
       </c>
@@ -7018,7 +6991,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A112" s="15" t="s">
         <v>299</v>
       </c>
@@ -7043,7 +7016,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A113" s="15" t="s">
         <v>302</v>
       </c>
@@ -7070,7 +7043,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A114" s="15" t="s">
         <v>304</v>
       </c>
@@ -7095,7 +7068,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A115" s="15" t="s">
         <v>306</v>
       </c>
@@ -7120,7 +7093,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A116" s="15" t="s">
         <v>309</v>
       </c>
@@ -7145,7 +7118,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A117" s="15" t="s">
         <v>311</v>
       </c>
@@ -7170,7 +7143,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A118" s="15" t="s">
         <v>313</v>
       </c>
@@ -7195,7 +7168,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A119" s="15" t="s">
         <v>315</v>
       </c>
@@ -7220,7 +7193,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A120" s="15" t="s">
         <v>317</v>
       </c>
@@ -7245,7 +7218,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A121" s="15" t="s">
         <v>320</v>
       </c>
@@ -7270,7 +7243,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A122" s="15" t="s">
         <v>322</v>
       </c>
@@ -7295,7 +7268,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A123" s="15" t="s">
         <v>324</v>
       </c>
@@ -7320,7 +7293,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A124" s="15" t="s">
         <v>326</v>
       </c>
@@ -7345,7 +7318,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A125" s="15" t="s">
         <v>328</v>
       </c>
@@ -7370,7 +7343,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A126" s="15" t="s">
         <v>330</v>
       </c>
@@ -7395,7 +7368,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A127" s="15" t="s">
         <v>332</v>
       </c>
@@ -7420,7 +7393,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A128" s="15" t="s">
         <v>334</v>
       </c>
@@ -7445,7 +7418,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A129" s="15" t="s">
         <v>336</v>
       </c>
@@ -7470,7 +7443,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A130" s="15" t="s">
         <v>338</v>
       </c>
@@ -7495,7 +7468,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A131" s="15" t="s">
         <v>340</v>
       </c>
@@ -7520,7 +7493,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A132" s="15" t="s">
         <v>342</v>
       </c>
@@ -7547,7 +7520,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A133" s="15" t="s">
         <v>344</v>
       </c>
@@ -7574,7 +7547,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A134" s="15" t="s">
         <v>347</v>
       </c>
@@ -7599,7 +7572,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A135" s="15" t="s">
         <v>349</v>
       </c>
@@ -7624,7 +7597,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A136" s="15" t="s">
         <v>351</v>
       </c>
@@ -7649,7 +7622,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A137" s="15" t="s">
         <v>353</v>
       </c>
@@ -7674,7 +7647,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A138" s="15" t="s">
         <v>356</v>
       </c>
@@ -7699,7 +7672,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A139" s="15" t="s">
         <v>359</v>
       </c>
@@ -7724,7 +7697,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A140" s="15" t="s">
         <v>362</v>
       </c>
@@ -7749,7 +7722,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A141" s="15" t="s">
         <v>364</v>
       </c>
@@ -7774,7 +7747,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A142" s="15" t="s">
         <v>366</v>
       </c>
@@ -7799,7 +7772,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A143" s="15" t="s">
         <v>369</v>
       </c>
@@ -7824,7 +7797,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A144" s="15" t="s">
         <v>372</v>
       </c>
@@ -7849,7 +7822,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A145" s="15" t="s">
         <v>374</v>
       </c>
@@ -7874,7 +7847,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A146" s="15" t="s">
         <v>376</v>
       </c>
@@ -7899,7 +7872,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A147" s="15" t="s">
         <v>378</v>
       </c>
@@ -7924,7 +7897,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A148" s="15" t="s">
         <v>380</v>
       </c>
@@ -7949,7 +7922,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A149" s="15" t="s">
         <v>382</v>
       </c>
@@ -7974,7 +7947,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A150" s="15" t="s">
         <v>384</v>
       </c>
@@ -7999,7 +7972,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A151" s="15" t="s">
         <v>386</v>
       </c>
@@ -8024,7 +7997,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A152" s="15" t="s">
         <v>389</v>
       </c>
@@ -8049,7 +8022,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A153" s="15" t="s">
         <v>391</v>
       </c>
@@ -8074,7 +8047,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A154" s="15" t="s">
         <v>393</v>
       </c>
@@ -8099,7 +8072,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A155" s="15" t="s">
         <v>396</v>
       </c>
@@ -8124,7 +8097,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A156" s="15" t="s">
         <v>398</v>
       </c>
@@ -8149,7 +8122,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A157" s="15" t="s">
         <v>400</v>
       </c>
@@ -8174,7 +8147,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A158" s="15" t="s">
         <v>402</v>
       </c>
@@ -8199,7 +8172,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A159" s="15" t="s">
         <v>404</v>
       </c>
@@ -8224,7 +8197,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A160" s="15" t="s">
         <v>407</v>
       </c>
@@ -8249,7 +8222,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A161" s="15" t="s">
         <v>408</v>
       </c>
@@ -8274,7 +8247,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A162" s="15" t="s">
         <v>410</v>
       </c>
@@ -8301,7 +8274,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A163" s="15" t="s">
         <v>413</v>
       </c>
@@ -8326,7 +8299,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A164" s="15" t="s">
         <v>415</v>
       </c>
@@ -8351,7 +8324,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A165" s="15" t="s">
         <v>417</v>
       </c>
@@ -8376,7 +8349,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A166" s="15" t="s">
         <v>420</v>
       </c>
@@ -8401,7 +8374,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A167" s="15" t="s">
         <v>422</v>
       </c>
@@ -8426,7 +8399,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A168" s="15" t="s">
         <v>424</v>
       </c>
@@ -8451,7 +8424,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A169" s="15" t="s">
         <v>426</v>
       </c>
@@ -8476,7 +8449,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A170" s="15" t="s">
         <v>428</v>
       </c>
@@ -8501,7 +8474,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A171" s="15" t="s">
         <v>430</v>
       </c>
@@ -8526,7 +8499,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A172" s="15" t="s">
         <v>432</v>
       </c>
@@ -8553,7 +8526,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A173" s="15" t="s">
         <v>434</v>
       </c>
@@ -8578,7 +8551,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A174" s="15" t="s">
         <v>436</v>
       </c>
@@ -8603,7 +8576,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A175" s="15" t="s">
         <v>438</v>
       </c>
@@ -8628,7 +8601,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A176" s="15" t="s">
         <v>440</v>
       </c>
@@ -8653,7 +8626,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A177" s="15" t="s">
         <v>441</v>
       </c>
@@ -8678,7 +8651,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A178" s="15" t="s">
         <v>444</v>
       </c>
@@ -8705,7 +8678,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A179" s="15" t="s">
         <v>446</v>
       </c>
@@ -8730,7 +8703,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A180" s="15" t="s">
         <v>448</v>
       </c>
@@ -8755,7 +8728,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A181" s="15" t="s">
         <v>450</v>
       </c>
@@ -8780,7 +8753,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A182" s="15" t="s">
         <v>453</v>
       </c>
@@ -8805,7 +8778,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A183" s="15" t="s">
         <v>455</v>
       </c>
@@ -8830,7 +8803,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A184" s="15" t="s">
         <v>458</v>
       </c>
@@ -8855,7 +8828,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A185" s="15" t="s">
         <v>460</v>
       </c>
@@ -8880,7 +8853,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A186" s="15" t="s">
         <v>462</v>
       </c>
@@ -8905,7 +8878,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A187" s="15" t="s">
         <v>464</v>
       </c>
@@ -8930,7 +8903,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A188" s="15" t="s">
         <v>466</v>
       </c>
@@ -8955,7 +8928,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A189" s="15" t="s">
         <v>468</v>
       </c>
@@ -8980,7 +8953,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A190" s="15" t="s">
         <v>470</v>
       </c>
@@ -9005,7 +8978,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A191" s="15" t="s">
         <v>472</v>
       </c>
@@ -9030,7 +9003,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A192" s="15" t="s">
         <v>474</v>
       </c>
@@ -9055,7 +9028,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A193" s="15" t="s">
         <v>476</v>
       </c>
@@ -9080,7 +9053,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A194" s="15" t="s">
         <v>478</v>
       </c>
@@ -9105,7 +9078,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A195" s="15" t="s">
         <v>481</v>
       </c>
@@ -9130,7 +9103,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A196" s="15" t="s">
         <v>483</v>
       </c>
@@ -9155,7 +9128,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A197" s="15" t="s">
         <v>485</v>
       </c>
@@ -9180,7 +9153,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A198" s="15" t="s">
         <v>487</v>
       </c>
@@ -9205,7 +9178,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A199" s="15" t="s">
         <v>489</v>
       </c>
@@ -9230,7 +9203,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A200" s="15" t="s">
         <v>490</v>
       </c>
@@ -9255,7 +9228,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A201" s="15" t="s">
         <v>492</v>
       </c>
@@ -9280,7 +9253,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A202" s="15" t="s">
         <v>494</v>
       </c>
@@ -9305,7 +9278,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A203" s="15" t="s">
         <v>495</v>
       </c>
@@ -9330,7 +9303,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A204" s="15" t="s">
         <v>498</v>
       </c>
@@ -9355,7 +9328,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A205" s="15" t="s">
         <v>501</v>
       </c>
@@ -9380,7 +9353,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A206" s="15" t="s">
         <v>503</v>
       </c>
@@ -9405,7 +9378,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A207" s="15" t="s">
         <v>505</v>
       </c>
@@ -9430,7 +9403,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A208" s="15" t="s">
         <v>508</v>
       </c>
@@ -9455,7 +9428,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A209" s="15" t="s">
         <v>510</v>
       </c>
@@ -9480,7 +9453,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A210" s="15" t="s">
         <v>512</v>
       </c>
@@ -9505,7 +9478,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A211" s="15" t="s">
         <v>515</v>
       </c>
@@ -9530,7 +9503,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A212" s="15" t="s">
         <v>518</v>
       </c>
@@ -9555,7 +9528,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A213" s="15" t="s">
         <v>521</v>
       </c>
@@ -9580,7 +9553,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A214" s="15" t="s">
         <v>523</v>
       </c>
@@ -9605,7 +9578,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A215" s="15" t="s">
         <v>524</v>
       </c>
@@ -9630,7 +9603,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A216" s="15" t="s">
         <v>526</v>
       </c>
@@ -9655,7 +9628,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A217" s="15" t="s">
         <v>528</v>
       </c>
@@ -9680,7 +9653,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A218" s="15" t="s">
         <v>530</v>
       </c>
@@ -9705,7 +9678,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A219" s="15" t="s">
         <v>532</v>
       </c>
@@ -9730,7 +9703,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A220" s="15" t="s">
         <v>534</v>
       </c>
@@ -9755,7 +9728,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A221" s="15" t="s">
         <v>536</v>
       </c>
@@ -9780,7 +9753,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A222" s="15" t="s">
         <v>538</v>
       </c>
@@ -9805,7 +9778,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A223" s="15" t="s">
         <v>539</v>
       </c>
@@ -9830,7 +9803,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A224" s="15" t="s">
         <v>541</v>
       </c>
@@ -9855,7 +9828,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A225" s="15" t="s">
         <v>543</v>
       </c>
@@ -9880,7 +9853,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A226" s="15" t="s">
         <v>545</v>
       </c>
@@ -9905,7 +9878,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A227" s="15" t="s">
         <v>547</v>
       </c>
@@ -9930,7 +9903,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A228" s="15" t="s">
         <v>550</v>
       </c>
@@ -9955,7 +9928,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A229" s="15" t="s">
         <v>552</v>
       </c>
@@ -9980,7 +9953,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A230" s="15" t="s">
         <v>555</v>
       </c>
@@ -10005,7 +9978,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A231" s="15" t="s">
         <v>557</v>
       </c>
@@ -10030,7 +10003,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A232" s="15" t="s">
         <v>559</v>
       </c>
@@ -10055,7 +10028,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A233" s="15" t="s">
         <v>561</v>
       </c>
@@ -10080,7 +10053,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A234" s="15" t="s">
         <v>563</v>
       </c>
@@ -10105,7 +10078,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A235" s="15" t="s">
         <v>565</v>
       </c>
@@ -10130,7 +10103,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A236" s="15" t="s">
         <v>567</v>
       </c>
@@ -10155,7 +10128,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A237" s="15" t="s">
         <v>570</v>
       </c>
@@ -10182,7 +10155,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A238" s="15" t="s">
         <v>572</v>
       </c>
@@ -10207,7 +10180,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A239" s="15" t="s">
         <v>574</v>
       </c>
@@ -10232,7 +10205,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A240" s="15" t="s">
         <v>577</v>
       </c>
@@ -10257,7 +10230,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A241" s="15" t="s">
         <v>579</v>
       </c>
@@ -10282,7 +10255,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A242" s="15" t="s">
         <v>581</v>
       </c>
@@ -10307,7 +10280,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A243" s="15" t="s">
         <v>583</v>
       </c>
@@ -10332,7 +10305,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A244" s="15" t="s">
         <v>585</v>
       </c>
@@ -10357,7 +10330,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A245" s="15" t="s">
         <v>587</v>
       </c>
@@ -10382,7 +10355,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A246" s="15" t="s">
         <v>589</v>
       </c>
@@ -10407,7 +10380,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A247" s="15" t="s">
         <v>591</v>
       </c>
@@ -10432,7 +10405,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A248" s="15" t="s">
         <v>593</v>
       </c>
@@ -10457,7 +10430,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A249" s="15" t="s">
         <v>595</v>
       </c>
@@ -10482,7 +10455,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A250" s="15" t="s">
         <v>597</v>
       </c>
@@ -10507,7 +10480,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A251" s="15" t="s">
         <v>599</v>
       </c>
@@ -10532,7 +10505,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A252" s="15" t="s">
         <v>601</v>
       </c>
@@ -10559,7 +10532,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A253" s="15" t="s">
         <v>603</v>
       </c>
@@ -10584,7 +10557,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A254" s="15" t="s">
         <v>605</v>
       </c>
@@ -10609,7 +10582,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A255" s="15" t="s">
         <v>606</v>
       </c>
@@ -10634,7 +10607,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A256" s="15" t="s">
         <v>608</v>
       </c>
@@ -10659,7 +10632,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A257" s="15" t="s">
         <v>611</v>
       </c>
@@ -10684,7 +10657,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A258" s="15" t="s">
         <v>613</v>
       </c>
@@ -10709,7 +10682,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A259" s="15" t="s">
         <v>615</v>
       </c>
@@ -10734,7 +10707,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A260" s="15" t="s">
         <v>617</v>
       </c>
@@ -10759,7 +10732,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A261" s="15" t="s">
         <v>619</v>
       </c>
@@ -10784,7 +10757,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A262" s="15" t="s">
         <v>622</v>
       </c>
@@ -10809,7 +10782,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A263" s="15" t="s">
         <v>624</v>
       </c>
@@ -10834,7 +10807,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A264" s="15" t="s">
         <v>626</v>
       </c>
@@ -10859,7 +10832,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A265" s="15" t="s">
         <v>628</v>
       </c>
@@ -10884,7 +10857,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A266" s="15" t="s">
         <v>631</v>
       </c>
@@ -10909,7 +10882,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A267" s="15" t="s">
         <v>634</v>
       </c>
@@ -10934,7 +10907,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A268" s="15" t="s">
         <v>636</v>
       </c>
@@ -10959,7 +10932,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A269" s="15" t="s">
         <v>638</v>
       </c>
@@ -10984,7 +10957,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A270" s="15" t="s">
         <v>640</v>
       </c>
@@ -11009,7 +10982,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A271" s="15" t="s">
         <v>642</v>
       </c>
@@ -11034,7 +11007,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A272" s="15" t="s">
         <v>644</v>
       </c>
@@ -11059,7 +11032,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A273" s="15" t="s">
         <v>646</v>
       </c>
@@ -11084,7 +11057,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A274" s="15" t="s">
         <v>648</v>
       </c>
@@ -11109,7 +11082,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A275" s="15" t="s">
         <v>651</v>
       </c>
@@ -11134,7 +11107,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A276" s="15" t="s">
         <v>653</v>
       </c>
@@ -11159,7 +11132,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A277" s="15" t="s">
         <v>655</v>
       </c>
@@ -11184,7 +11157,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A278" s="15" t="s">
         <v>658</v>
       </c>
@@ -11209,7 +11182,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A279" s="15" t="s">
         <v>660</v>
       </c>
@@ -11234,7 +11207,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A280" s="15" t="s">
         <v>662</v>
       </c>
@@ -11259,7 +11232,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A281" s="15" t="s">
         <v>665</v>
       </c>
@@ -11284,7 +11257,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A282" s="15" t="s">
         <v>667</v>
       </c>
@@ -11309,7 +11282,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A283" s="15" t="s">
         <v>669</v>
       </c>
@@ -11334,7 +11307,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A284" s="15" t="s">
         <v>671</v>
       </c>
@@ -11359,7 +11332,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A285" s="15" t="s">
         <v>673</v>
       </c>
@@ -11384,7 +11357,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A286" s="15" t="s">
         <v>675</v>
       </c>
@@ -11409,7 +11382,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A287" s="15" t="s">
         <v>677</v>
       </c>
@@ -11434,7 +11407,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A288" s="15" t="s">
         <v>679</v>
       </c>
@@ -11459,7 +11432,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A289" s="15" t="s">
         <v>681</v>
       </c>
@@ -11484,7 +11457,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A290" s="15" t="s">
         <v>683</v>
       </c>
@@ -11509,7 +11482,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A291" s="15" t="s">
         <v>685</v>
       </c>
@@ -11534,7 +11507,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A292" s="15" t="s">
         <v>687</v>
       </c>
@@ -11559,7 +11532,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A293" s="15" t="s">
         <v>690</v>
       </c>
@@ -11584,7 +11557,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A294" s="15" t="s">
         <v>692</v>
       </c>
@@ -11609,7 +11582,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A295" s="15" t="s">
         <v>694</v>
       </c>
@@ -11634,7 +11607,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A296" s="15" t="s">
         <v>696</v>
       </c>
@@ -11659,7 +11632,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A297" s="15" t="s">
         <v>699</v>
       </c>
@@ -11684,7 +11657,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A298" s="15" t="s">
         <v>701</v>
       </c>
@@ -11709,7 +11682,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A299" s="15" t="s">
         <v>703</v>
       </c>
@@ -11734,7 +11707,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A300" s="15" t="s">
         <v>705</v>
       </c>
@@ -11759,7 +11732,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A301" s="15" t="s">
         <v>708</v>
       </c>
@@ -11784,7 +11757,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A302" s="15" t="s">
         <v>710</v>
       </c>
@@ -11809,7 +11782,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A303" s="15" t="s">
         <v>712</v>
       </c>
@@ -11834,7 +11807,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A304" s="15" t="s">
         <v>714</v>
       </c>
@@ -11859,7 +11832,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A305" s="15" t="s">
         <v>717</v>
       </c>
@@ -11884,7 +11857,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A306" s="15" t="s">
         <v>719</v>
       </c>
@@ -11911,7 +11884,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A307" s="15" t="s">
         <v>721</v>
       </c>
@@ -11936,7 +11909,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A308" s="15" t="s">
         <v>723</v>
       </c>
@@ -11961,7 +11934,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A309" s="15" t="s">
         <v>725</v>
       </c>
@@ -11988,7 +11961,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A310" s="15" t="s">
         <v>727</v>
       </c>
@@ -12013,7 +11986,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A311" s="15" t="s">
         <v>729</v>
       </c>
@@ -12038,7 +12011,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A312" s="15" t="s">
         <v>731</v>
       </c>
@@ -12063,7 +12036,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A313" s="15" t="s">
         <v>733</v>
       </c>
@@ -12088,7 +12061,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A314" s="15" t="s">
         <v>735</v>
       </c>
@@ -12113,7 +12086,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A315" s="15" t="s">
         <v>737</v>
       </c>
@@ -12138,7 +12111,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A316" s="15" t="s">
         <v>739</v>
       </c>
@@ -12163,7 +12136,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A317" s="15" t="s">
         <v>741</v>
       </c>
@@ -12188,7 +12161,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A318" s="15" t="s">
         <v>743</v>
       </c>
@@ -12215,7 +12188,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A319" s="15" t="s">
         <v>745</v>
       </c>
@@ -12242,7 +12215,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A320" s="15" t="s">
         <v>747</v>
       </c>
@@ -12267,7 +12240,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A321" s="15" t="s">
         <v>749</v>
       </c>
@@ -12292,7 +12265,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A322" s="15" t="s">
         <v>751</v>
       </c>
@@ -12317,7 +12290,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A323" s="15" t="s">
         <v>754</v>
       </c>
@@ -12342,7 +12315,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A324" s="15" t="s">
         <v>757</v>
       </c>
@@ -12367,7 +12340,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A325" s="15" t="s">
         <v>759</v>
       </c>
@@ -12392,7 +12365,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A326" s="15" t="s">
         <v>761</v>
       </c>
@@ -12417,7 +12390,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A327" s="15" t="s">
         <v>763</v>
       </c>
@@ -12442,7 +12415,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A328" s="15" t="s">
         <v>765</v>
       </c>
@@ -12467,7 +12440,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A329" s="15" t="s">
         <v>767</v>
       </c>
@@ -12492,7 +12465,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A330" s="15" t="s">
         <v>769</v>
       </c>
@@ -12517,7 +12490,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A331" s="15" t="s">
         <v>771</v>
       </c>
@@ -12542,7 +12515,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A332" s="15" t="s">
         <v>772</v>
       </c>
@@ -12567,7 +12540,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A333" s="15" t="s">
         <v>774</v>
       </c>
@@ -12592,7 +12565,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A334" s="15" t="s">
         <v>776</v>
       </c>
@@ -12617,7 +12590,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A335" s="15" t="s">
         <v>778</v>
       </c>
@@ -12642,7 +12615,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A336" s="15" t="s">
         <v>781</v>
       </c>
@@ -12667,7 +12640,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A337" s="15" t="s">
         <v>784</v>
       </c>
@@ -12692,7 +12665,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A338" s="15" t="s">
         <v>787</v>
       </c>
@@ -12717,7 +12690,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A339" s="15" t="s">
         <v>789</v>
       </c>
@@ -12742,7 +12715,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A340" s="15" t="s">
         <v>791</v>
       </c>
@@ -12767,7 +12740,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A341" s="15" t="s">
         <v>793</v>
       </c>
@@ -12792,7 +12765,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A342" s="15" t="s">
         <v>796</v>
       </c>
@@ -12817,7 +12790,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A343" s="15" t="s">
         <v>798</v>
       </c>
@@ -12842,7 +12815,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A344" s="15" t="s">
         <v>800</v>
       </c>
@@ -12867,7 +12840,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A345" s="15" t="s">
         <v>802</v>
       </c>
@@ -12892,7 +12865,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A346" s="15" t="s">
         <v>804</v>
       </c>
@@ -12917,7 +12890,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A347" s="15" t="s">
         <v>806</v>
       </c>
@@ -12942,7 +12915,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A348" s="15" t="s">
         <v>808</v>
       </c>
@@ -12967,7 +12940,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A349" s="15" t="s">
         <v>810</v>
       </c>
@@ -12994,7 +12967,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A350" s="15" t="s">
         <v>813</v>
       </c>
@@ -13021,7 +12994,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A351" s="15" t="s">
         <v>815</v>
       </c>
@@ -13046,7 +13019,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A352" s="15" t="s">
         <v>816</v>
       </c>
@@ -13071,7 +13044,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A353" s="15" t="s">
         <v>818</v>
       </c>
@@ -13096,7 +13069,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A354" s="15" t="s">
         <v>820</v>
       </c>
@@ -13121,7 +13094,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A355" s="15" t="s">
         <v>822</v>
       </c>
@@ -13146,7 +13119,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A356" s="15" t="s">
         <v>824</v>
       </c>
@@ -13171,7 +13144,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A357" s="15" t="s">
         <v>826</v>
       </c>
@@ -13196,7 +13169,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A358" s="15" t="s">
         <v>828</v>
       </c>
@@ -13223,7 +13196,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A359" s="15" t="s">
         <v>830</v>
       </c>
@@ -13248,7 +13221,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A360" s="15" t="s">
         <v>832</v>
       </c>
@@ -13273,7 +13246,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A361" s="15" t="s">
         <v>834</v>
       </c>
@@ -13298,7 +13271,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A362" s="15" t="s">
         <v>836</v>
       </c>
@@ -13323,7 +13296,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A363" s="15" t="s">
         <v>838</v>
       </c>
@@ -13348,7 +13321,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A364" s="15" t="s">
         <v>840</v>
       </c>
@@ -13373,7 +13346,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A365" s="15" t="s">
         <v>842</v>
       </c>
@@ -13398,7 +13371,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A366" s="15" t="s">
         <v>844</v>
       </c>
@@ -13425,7 +13398,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A367" s="15" t="s">
         <v>846</v>
       </c>
@@ -13450,7 +13423,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A368" s="15" t="s">
         <v>848</v>
       </c>
@@ -13475,7 +13448,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A369" s="15" t="s">
         <v>850</v>
       </c>
@@ -13500,7 +13473,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A370" s="15" t="s">
         <v>853</v>
       </c>
@@ -13525,7 +13498,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A371" s="15" t="s">
         <v>855</v>
       </c>
@@ -13550,7 +13523,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A372" s="15" t="s">
         <v>857</v>
       </c>
@@ -13575,7 +13548,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A373" s="15" t="s">
         <v>859</v>
       </c>
@@ -13600,7 +13573,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A374" s="15" t="s">
         <v>861</v>
       </c>
@@ -13625,7 +13598,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A375" s="15" t="s">
         <v>863</v>
       </c>
@@ -13650,7 +13623,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A376" s="15" t="s">
         <v>865</v>
       </c>
@@ -13675,7 +13648,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A377" s="15" t="s">
         <v>867</v>
       </c>
@@ -13700,7 +13673,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A378" s="15" t="s">
         <v>869</v>
       </c>
@@ -13725,7 +13698,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A379" s="15" t="s">
         <v>871</v>
       </c>
@@ -13750,7 +13723,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A380" s="15" t="s">
         <v>873</v>
       </c>
@@ -13775,7 +13748,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A381" s="15" t="s">
         <v>874</v>
       </c>
@@ -13800,7 +13773,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A382" s="15" t="s">
         <v>876</v>
       </c>
@@ -13827,7 +13800,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A383" s="15" t="s">
         <v>878</v>
       </c>
@@ -13852,7 +13825,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A384" s="15" t="s">
         <v>880</v>
       </c>
@@ -13877,7 +13850,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A385" s="15" t="s">
         <v>882</v>
       </c>
@@ -13902,7 +13875,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A386" s="15" t="s">
         <v>884</v>
       </c>
@@ -13927,7 +13900,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A387" s="15" t="s">
         <v>886</v>
       </c>
@@ -13952,7 +13925,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A388" s="15" t="s">
         <v>887</v>
       </c>
@@ -13977,7 +13950,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A389" s="15" t="s">
         <v>889</v>
       </c>
@@ -14002,7 +13975,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A390" s="15" t="s">
         <v>891</v>
       </c>
@@ -14027,7 +14000,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A391" s="15" t="s">
         <v>892</v>
       </c>
@@ -14052,7 +14025,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A392" s="15" t="s">
         <v>894</v>
       </c>
@@ -14077,7 +14050,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A393" s="15" t="s">
         <v>896</v>
       </c>
@@ -14102,7 +14075,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A394" s="15" t="s">
         <v>898</v>
       </c>
@@ -14127,7 +14100,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A395" s="15" t="s">
         <v>900</v>
       </c>
@@ -14152,7 +14125,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A396" s="15" t="s">
         <v>902</v>
       </c>
@@ -14177,7 +14150,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A397" s="15" t="s">
         <v>904</v>
       </c>
@@ -14204,7 +14177,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A398" s="15" t="s">
         <v>906</v>
       </c>
@@ -14229,7 +14202,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A399" s="15" t="s">
         <v>908</v>
       </c>
@@ -14254,7 +14227,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A400" s="15" t="s">
         <v>910</v>
       </c>
@@ -14279,7 +14252,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A401" s="15" t="s">
         <v>912</v>
       </c>
@@ -14304,7 +14277,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A402" s="15" t="s">
         <v>914</v>
       </c>
@@ -14329,7 +14302,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A403" s="15" t="s">
         <v>917</v>
       </c>
@@ -14354,7 +14327,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A404" s="15" t="s">
         <v>919</v>
       </c>
@@ -14379,7 +14352,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A405" s="15" t="s">
         <v>922</v>
       </c>
@@ -14406,7 +14379,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A406" s="15" t="s">
         <v>924</v>
       </c>
@@ -14431,7 +14404,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A407" s="15" t="s">
         <v>926</v>
       </c>
@@ -14456,7 +14429,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A408" s="15" t="s">
         <v>928</v>
       </c>
@@ -14481,7 +14454,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A409" s="15" t="s">
         <v>930</v>
       </c>
@@ -14506,7 +14479,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A410" s="15" t="s">
         <v>932</v>
       </c>
@@ -14531,7 +14504,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A411" s="15" t="s">
         <v>934</v>
       </c>
@@ -14558,7 +14531,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A412" s="15" t="s">
         <v>936</v>
       </c>
@@ -14583,7 +14556,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A413" s="15" t="s">
         <v>938</v>
       </c>
@@ -14608,7 +14581,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A414" s="15" t="s">
         <v>940</v>
       </c>
@@ -14635,7 +14608,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A415" s="15" t="s">
         <v>942</v>
       </c>
@@ -14660,7 +14633,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A416" s="15" t="s">
         <v>944</v>
       </c>
@@ -14685,7 +14658,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A417" s="15" t="s">
         <v>946</v>
       </c>
@@ -14710,7 +14683,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A418" s="15" t="s">
         <v>948</v>
       </c>
@@ -14735,7 +14708,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A419" s="15" t="s">
         <v>950</v>
       </c>
@@ -14760,7 +14733,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A420" s="15" t="s">
         <v>952</v>
       </c>
@@ -14785,7 +14758,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A421" s="15" t="s">
         <v>954</v>
       </c>
@@ -14810,7 +14783,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A422" s="15" t="s">
         <v>956</v>
       </c>
@@ -14835,7 +14808,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A423" s="15" t="s">
         <v>958</v>
       </c>
@@ -14860,7 +14833,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A424" s="15" t="s">
         <v>960</v>
       </c>
@@ -14885,7 +14858,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A425" s="15" t="s">
         <v>962</v>
       </c>
@@ -14910,7 +14883,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A426" s="15" t="s">
         <v>964</v>
       </c>
@@ -14935,7 +14908,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A427" s="15" t="s">
         <v>966</v>
       </c>
@@ -14960,7 +14933,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A428" s="15" t="s">
         <v>968</v>
       </c>
@@ -14985,7 +14958,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A429" s="15" t="s">
         <v>970</v>
       </c>
@@ -15010,7 +14983,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A430" s="15" t="s">
         <v>972</v>
       </c>
@@ -15035,7 +15008,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A431" s="15" t="s">
         <v>974</v>
       </c>
@@ -15060,7 +15033,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A432" s="15" t="s">
         <v>976</v>
       </c>
@@ -15085,7 +15058,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A433" s="15" t="s">
         <v>978</v>
       </c>
@@ -15110,7 +15083,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A434" s="15" t="s">
         <v>980</v>
       </c>
@@ -15137,7 +15110,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A435" s="15" t="s">
         <v>983</v>
       </c>
@@ -15162,7 +15135,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A436" s="15" t="s">
         <v>986</v>
       </c>
@@ -15187,7 +15160,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A437" s="15" t="s">
         <v>988</v>
       </c>
@@ -15212,7 +15185,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A438" s="15" t="s">
         <v>990</v>
       </c>
@@ -15237,7 +15210,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A439" s="15" t="s">
         <v>992</v>
       </c>
@@ -15264,7 +15237,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A440" s="15" t="s">
         <v>994</v>
       </c>
@@ -15289,7 +15262,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A441" s="15" t="s">
         <v>996</v>
       </c>
@@ -15314,7 +15287,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A442" s="15" t="s">
         <v>998</v>
       </c>
@@ -15339,7 +15312,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A443" s="15" t="s">
         <v>1000</v>
       </c>
@@ -15364,7 +15337,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A444" s="15" t="s">
         <v>1002</v>
       </c>
@@ -15389,7 +15362,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A445" s="15" t="s">
         <v>1004</v>
       </c>
@@ -15416,7 +15389,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A446" s="15" t="s">
         <v>1006</v>
       </c>
@@ -15441,7 +15414,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A447" s="15" t="s">
         <v>1008</v>
       </c>
@@ -15466,7 +15439,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A448" s="15" t="s">
         <v>1010</v>
       </c>
@@ -15491,7 +15464,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A449" s="15" t="s">
         <v>1012</v>
       </c>
@@ -15516,7 +15489,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A450" s="15" t="s">
         <v>1014</v>
       </c>
@@ -15541,7 +15514,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A451" s="15" t="s">
         <v>1016</v>
       </c>
@@ -15566,7 +15539,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A452" s="15" t="s">
         <v>1018</v>
       </c>
@@ -15591,7 +15564,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A453" s="15" t="s">
         <v>1020</v>
       </c>
@@ -15616,7 +15589,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A454" s="15" t="s">
         <v>1022</v>
       </c>
@@ -15641,7 +15614,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A455" s="15" t="s">
         <v>1024</v>
       </c>
@@ -15666,7 +15639,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A456" s="15" t="s">
         <v>1026</v>
       </c>
@@ -15691,7 +15664,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A457" s="15" t="s">
         <v>1028</v>
       </c>
@@ -15716,7 +15689,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A458" s="15" t="s">
         <v>1030</v>
       </c>
@@ -15743,7 +15716,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A459" s="15" t="s">
         <v>1031</v>
       </c>
@@ -15768,7 +15741,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A460" s="15" t="s">
         <v>1033</v>
       </c>
@@ -15793,7 +15766,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A461" s="15" t="s">
         <v>1035</v>
       </c>
@@ -15818,7 +15791,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A462" s="15" t="s">
         <v>1037</v>
       </c>
@@ -15843,7 +15816,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A463" s="15" t="s">
         <v>1039</v>
       </c>
@@ -15868,7 +15841,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A464" s="15" t="s">
         <v>1041</v>
       </c>
@@ -15893,7 +15866,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A465" s="15" t="s">
         <v>1043</v>
       </c>
@@ -15918,7 +15891,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A466" s="15" t="s">
         <v>1045</v>
       </c>
@@ -15943,7 +15916,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A467" s="15" t="s">
         <v>1047</v>
       </c>
@@ -15968,7 +15941,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A468" s="15" t="s">
         <v>1050</v>
       </c>
@@ -15993,7 +15966,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A469" s="15" t="s">
         <v>1052</v>
       </c>
@@ -16018,7 +15991,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A470" s="15" t="s">
         <v>1054</v>
       </c>
@@ -16043,7 +16016,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A471" s="15" t="s">
         <v>1056</v>
       </c>
@@ -16068,7 +16041,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A472" s="15" t="s">
         <v>1058</v>
       </c>
@@ -16093,7 +16066,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A473" s="15" t="s">
         <v>1060</v>
       </c>
@@ -16118,7 +16091,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A474" s="15" t="s">
         <v>1062</v>
       </c>
@@ -16143,7 +16116,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="475" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A475" s="15" t="s">
         <v>1064</v>
       </c>
@@ -16168,7 +16141,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="476" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A476" s="15" t="s">
         <v>1066</v>
       </c>
@@ -16193,7 +16166,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A477" s="15" t="s">
         <v>1068</v>
       </c>
@@ -16218,7 +16191,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="478" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A478" s="15" t="s">
         <v>1070</v>
       </c>
@@ -16245,7 +16218,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="479" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A479" s="15" t="s">
         <v>1072</v>
       </c>
@@ -16270,7 +16243,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A480" s="15" t="s">
         <v>1074</v>
       </c>
@@ -16295,7 +16268,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A481" s="15" t="s">
         <v>1076</v>
       </c>
@@ -16320,7 +16293,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="482" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A482" s="15" t="s">
         <v>1078</v>
       </c>
@@ -16345,7 +16318,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A483" s="15" t="s">
         <v>1080</v>
       </c>
@@ -16370,7 +16343,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A484" s="15" t="s">
         <v>1082</v>
       </c>
@@ -16395,7 +16368,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A485" s="15" t="s">
         <v>1085</v>
       </c>
@@ -16420,7 +16393,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A486" s="15" t="s">
         <v>1087</v>
       </c>
@@ -16445,7 +16418,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A487" s="15" t="s">
         <v>1089</v>
       </c>
@@ -16470,7 +16443,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="488" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A488" s="15" t="s">
         <v>1091</v>
       </c>
@@ -16495,7 +16468,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A489" s="15" t="s">
         <v>1093</v>
       </c>
@@ -16520,7 +16493,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A490" s="15" t="s">
         <v>1095</v>
       </c>
@@ -16545,7 +16518,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A491" s="15" t="s">
         <v>1097</v>
       </c>
@@ -16570,7 +16543,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A492" s="15" t="s">
         <v>1099</v>
       </c>
@@ -16597,7 +16570,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A493" s="15" t="s">
         <v>1101</v>
       </c>
@@ -16622,7 +16595,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A494" s="15" t="s">
         <v>1103</v>
       </c>
@@ -16647,7 +16620,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A495" s="15" t="s">
         <v>1105</v>
       </c>
@@ -16672,7 +16645,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A496" s="15" t="s">
         <v>1108</v>
       </c>
@@ -16697,7 +16670,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="497" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A497" s="15" t="s">
         <v>1110</v>
       </c>
@@ -16722,7 +16695,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="498" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A498" s="15" t="s">
         <v>1112</v>
       </c>
@@ -16747,7 +16720,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A499" s="15" t="s">
         <v>1114</v>
       </c>
@@ -16772,7 +16745,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="500" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A500" s="15" t="s">
         <v>1116</v>
       </c>
@@ -16797,7 +16770,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="501" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A501" s="15" t="s">
         <v>1118</v>
       </c>
@@ -16822,7 +16795,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="502" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A502" s="15" t="s">
         <v>1120</v>
       </c>
@@ -16847,7 +16820,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="503" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A503" s="15" t="s">
         <v>1122</v>
       </c>
@@ -16872,7 +16845,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="504" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A504" s="15" t="s">
         <v>1124</v>
       </c>
@@ -16897,7 +16870,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="505" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A505" s="15" t="s">
         <v>1126</v>
       </c>
@@ -16922,7 +16895,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="506" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A506" s="15" t="s">
         <v>1128</v>
       </c>
@@ -17971,201 +17944,108 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{126F1A99-4E7A-415E-A756-D4D65589781E}">
-  <dimension ref="A1:J21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A5B85B6-9870-4DDE-B3B1-3C8CBF8EAA4E}">
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A2" sqref="A2:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="31.140625" customWidth="1"/>
-    <col min="6" max="6" width="35.28515625" customWidth="1"/>
-    <col min="10" max="10" width="43.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.15234375" style="8"/>
+    <col min="2" max="2" width="40" style="8" customWidth="1"/>
+    <col min="3" max="3" width="25.69140625" style="8" customWidth="1"/>
+    <col min="4" max="16384" width="9.15234375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1196</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1210</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1219</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1211</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1202</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1210</v>
-      </c>
-      <c r="H1" t="s">
-        <v>1219</v>
-      </c>
-      <c r="J1" t="s">
-        <v>1211</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1200</v>
-      </c>
-      <c r="B2">
-        <v>8942</v>
-      </c>
-      <c r="C2">
-        <v>44045</v>
-      </c>
-      <c r="D2">
-        <v>25079</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1203</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1209</v>
-      </c>
-      <c r="G2">
-        <v>16426</v>
-      </c>
-      <c r="H2">
-        <v>62869</v>
-      </c>
-      <c r="J2" t="s">
-        <v>1213</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1201</v>
-      </c>
-      <c r="B3">
-        <v>7154</v>
-      </c>
-      <c r="C3">
-        <v>40776</v>
-      </c>
-      <c r="D3">
-        <v>19366</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F4" t="s">
-        <v>1204</v>
-      </c>
-      <c r="G4">
-        <v>48278</v>
-      </c>
-      <c r="H4">
-        <v>544710</v>
-      </c>
-      <c r="J4" t="s">
-        <v>1214</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="4" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C2" s="9">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="D2" s="8">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="4" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C3" s="9">
+        <v>0.08</v>
+      </c>
+      <c r="D3" s="8">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="4" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="D4" s="8">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="4" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="D5" s="8">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" s="4" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="D6" s="8">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B13" s="8" t="s">
         <v>1197</v>
-      </c>
-      <c r="B5">
-        <v>1434</v>
-      </c>
-      <c r="C5">
-        <v>1874</v>
-      </c>
-      <c r="D5">
-        <v>3748</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1220</v>
-      </c>
-      <c r="F5" t="s">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>1198</v>
-      </c>
-      <c r="B7">
-        <v>586.29999999999995</v>
-      </c>
-      <c r="C7">
-        <v>7200</v>
-      </c>
-      <c r="D7">
-        <v>729</v>
-      </c>
-      <c r="F7" t="s">
-        <v>1208</v>
-      </c>
-      <c r="G7">
-        <v>9635</v>
-      </c>
-      <c r="H7">
-        <v>82126</v>
-      </c>
-      <c r="J7" t="s">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>1199</v>
-      </c>
-      <c r="F9" t="s">
-        <v>1207</v>
-      </c>
-      <c r="G9">
-        <v>16193</v>
-      </c>
-      <c r="H9">
-        <v>155767</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F11" t="s">
-        <v>1205</v>
-      </c>
-      <c r="G11">
-        <v>33748</v>
-      </c>
-      <c r="H11">
-        <v>364864</v>
-      </c>
-      <c r="J11" t="s">
-        <v>1216</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F13" t="s">
-        <v>1206</v>
-      </c>
-      <c r="G13">
-        <v>14530</v>
-      </c>
-      <c r="H13">
-        <v>179846</v>
-      </c>
-      <c r="J13" t="s">
-        <v>1217</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>1218</v>
       </c>
     </row>
   </sheetData>
@@ -18178,104 +18058,188 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A5B85B6-9870-4DDE-B3B1-3C8CBF8EAA4E}">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F543CB4-9809-41AC-9787-4074B76DFA1E}">
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="8"/>
-    <col min="2" max="2" width="40" style="8" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" style="8" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="8.3046875" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.3828125" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.53515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.15234375" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="16" t="s">
         <v>1135</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="16" t="s">
         <v>1153</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>1143</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>1144</v>
-      </c>
-      <c r="C2" s="9">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="D2" s="8">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>1145</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>1146</v>
-      </c>
-      <c r="C3" s="9">
-        <v>0.08</v>
-      </c>
-      <c r="D3" s="8">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>1147</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>1148</v>
-      </c>
-      <c r="C4" s="9">
-        <v>0.05</v>
-      </c>
-      <c r="D4" s="8">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>1149</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>1150</v>
-      </c>
-      <c r="C5" s="9">
-        <v>0.05</v>
-      </c>
-      <c r="D5" s="8">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>1151</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>1152</v>
-      </c>
-      <c r="C6" s="9">
-        <v>0.05</v>
-      </c>
-      <c r="D6" s="8">
-        <v>2007</v>
-      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="15" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C2" s="17">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="15" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C3" s="17">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="15" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C4" s="17">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="15" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C5" s="17">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="15" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C6" s="17">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" s="15" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C7" s="17">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" s="15" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C8" s="17">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" s="15" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C9" s="17">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" s="15" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C10" s="17">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" s="15" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C11" s="17">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" s="15" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C12" s="17">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C13" s="17"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C14" s="17"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C15" s="17"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C16" s="17"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C17" s="17"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C18" s="17"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C19" s="17"/>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C20" s="17"/>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C21" s="17"/>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C22" s="17"/>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C23" s="17"/>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C24" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18287,189 +18251,138 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F543CB4-9809-41AC-9787-4074B76DFA1E}">
-  <dimension ref="A1:C24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E95CCF15-AE35-457A-97F2-3848BAB2C8AE}">
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="9.15234375" style="5"/>
+    <col min="2" max="2" width="54.84375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="32.15234375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="17.3046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.3046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.3046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="7" t="s">
         <v>1135</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="7" t="s">
         <v>1153</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>1179</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>1180</v>
-      </c>
-      <c r="C2" s="17">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>1181</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>1184</v>
-      </c>
-      <c r="C3" s="17">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>1184</v>
-      </c>
-      <c r="C4" s="17">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>1183</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>1184</v>
-      </c>
-      <c r="C5" s="17">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>1185</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>1187</v>
-      </c>
-      <c r="C6" s="17">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>1186</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>1187</v>
-      </c>
-      <c r="C7" s="17">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
-        <v>1188</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>1190</v>
-      </c>
-      <c r="C8" s="17">
-        <v>0.41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
-        <v>1189</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>1190</v>
-      </c>
-      <c r="C9" s="17">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
-        <v>1191</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>1194</v>
-      </c>
-      <c r="C10" s="17">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
-        <v>1192</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>1194</v>
-      </c>
-      <c r="C11" s="17">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
-        <v>1193</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>1194</v>
-      </c>
-      <c r="C12" s="17">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C13" s="17"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C14" s="17"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C15" s="17"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C16" s="17"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="17"/>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" s="17"/>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C19" s="17"/>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C20" s="17"/>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C21" s="17"/>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C22" s="17"/>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C23" s="17"/>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C24" s="17"/>
-    </row>
+      <c r="D1" s="7" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="4" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C2" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="D2">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C3" s="9">
+        <v>0.08</v>
+      </c>
+      <c r="D3">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="C4"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="C5"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+    </row>
+    <row r="17" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="18" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="19" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="20" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="21" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="22" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="23" customFormat="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -18480,25 +18393,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E95CCF15-AE35-457A-97F2-3848BAB2C8AE}">
-  <dimension ref="A1:D23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59867762-A2E6-4C17-9C6B-302A4F827A3B}">
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A2" sqref="A2:B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="5"/>
-    <col min="2" max="2" width="54.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="32.140625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="42.3046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -18508,110 +18415,350 @@
       <c r="C1" s="7" t="s">
         <v>1153</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="16" t="s">
         <v>1195</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>1136</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>1137</v>
-      </c>
-      <c r="C2" s="10">
-        <v>0.05</v>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="11" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C2" s="12">
+        <v>1E-3</v>
       </c>
       <c r="D2">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>1138</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>1139</v>
-      </c>
-      <c r="C3" s="9">
-        <v>0.08</v>
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="11" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C3" s="12">
+        <v>1E-3</v>
       </c>
       <c r="D3">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4"/>
-      <c r="B4"/>
-      <c r="C4"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5"/>
-      <c r="B5"/>
-      <c r="C5"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16"/>
-    </row>
-    <row r="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="11" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C4" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="D4">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="11" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C5" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="D5">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" s="11" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C6" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="D6">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" s="11" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C7" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="D7">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" s="11" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C8" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="D8">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" s="11" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C9" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="D9">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" s="11" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C10" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="D10">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" s="11" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C11" s="13">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="D11">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" s="11" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C12" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="D12">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16" s="11" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C16" s="23">
+        <v>2.9898785342219399E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" s="11" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C17" s="23">
+        <v>2.1114597250409699E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" s="11" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C18" s="23">
+        <v>9.0630357245453999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19" s="11" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C19" s="23">
+        <v>1.93412520769475E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20" s="11" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C20" s="23">
+        <v>9.8077058149094995E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21" s="11" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C21" s="23">
+        <v>0.29031385550792999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22" s="11" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C22" s="23">
+        <v>2.54193418305288E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23" s="11" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C23" s="23">
+        <v>0.27032524029983002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24" s="11" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C24" s="23">
+        <v>2.5844431567154599E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25" s="11" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C25" s="23">
+        <v>5.8814180411624201E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A26" s="11" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C26" s="23">
+        <v>1.55216473068811E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A27" s="11" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C27" s="23">
+        <v>5.4699253011923903E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A30" s="11"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="22"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A31" s="11"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="22"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A32" s="11"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="22"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A33" s="11"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="22"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A34" s="11"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="22"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A35" s="11"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="22"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A36" s="11"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="22"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A37" s="11"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="22"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A38" s="11"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="22"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A39" s="11"/>
+      <c r="C39" s="22"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A40" s="11"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="22"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C41" s="22"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -18622,196 +18769,3518 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59867762-A2E6-4C17-9C6B-302A4F827A3B}">
-  <dimension ref="A1:D12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B10FC7C-E644-4209-A429-EF6C58AE0226}">
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="42.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="15.3828125" customWidth="1"/>
+    <col min="4" max="4" width="14.84375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1135</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>1153</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="H1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C2" s="4">
+        <v>12.5325403564703</v>
+      </c>
+      <c r="D2" s="22"/>
+      <c r="G2" t="s">
+        <v>1205</v>
+      </c>
+      <c r="H2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
         <v>1160</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B3" s="14" t="s">
         <v>1168</v>
       </c>
-      <c r="C2" s="12">
-        <v>1E-3</v>
-      </c>
-      <c r="D2">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="C3" s="4">
+        <v>6.7747498810453797</v>
+      </c>
+      <c r="D3" s="22"/>
+      <c r="G3" t="s">
+        <v>1206</v>
+      </c>
+      <c r="H3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" s="4" t="s">
         <v>1161</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B4" s="14" t="s">
         <v>1169</v>
       </c>
-      <c r="C3" s="12">
-        <v>1E-3</v>
-      </c>
-      <c r="D3">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="C4" s="4">
+        <v>14.2057907977018</v>
+      </c>
+      <c r="D4" s="22"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" s="11" t="s">
         <v>1162</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B5" s="14" t="s">
         <v>1170</v>
       </c>
-      <c r="C4" s="12">
-        <v>1E-3</v>
-      </c>
-      <c r="D4">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="C5" s="14">
+        <v>10.8744821861705</v>
+      </c>
+      <c r="D5" s="22"/>
+      <c r="G5" t="s">
+        <v>1207</v>
+      </c>
+      <c r="H5">
+        <f>1-H3-H2-H1</f>
+        <v>9.9999999999999978E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" s="4" t="s">
         <v>1142</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B6" s="14" t="s">
         <v>1171</v>
       </c>
-      <c r="C5" s="12">
-        <v>1E-3</v>
-      </c>
-      <c r="D5">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="C6" s="4">
+        <v>1.4284832284048501</v>
+      </c>
+      <c r="D6" s="22"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" s="4" t="s">
         <v>1163</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B7" s="14" t="s">
         <v>1172</v>
       </c>
-      <c r="C6" s="12">
-        <v>1E-3</v>
-      </c>
-      <c r="D6">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="C7" s="4">
+        <v>10.094204927942201</v>
+      </c>
+      <c r="D7" s="22"/>
+      <c r="G7" t="s">
+        <v>1209</v>
+      </c>
+      <c r="H7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" s="4" t="s">
         <v>1164</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B8" s="14" t="s">
         <v>1173</v>
       </c>
-      <c r="C7" s="12">
-        <v>1E-3</v>
-      </c>
-      <c r="D7">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="C8" s="4">
+        <v>13.5988572433762</v>
+      </c>
+      <c r="D8" s="22"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" s="11" t="s">
         <v>1165</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B9" s="14" t="s">
         <v>1174</v>
       </c>
-      <c r="C8" s="12">
-        <v>1E-3</v>
-      </c>
-      <c r="D8">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="C9" s="14">
+        <v>9.8173500283106598</v>
+      </c>
+      <c r="D9" s="22"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10" s="11" t="s">
         <v>1166</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B10" s="14" t="s">
         <v>1175</v>
       </c>
-      <c r="C9" s="12">
-        <v>1E-3</v>
-      </c>
-      <c r="D9">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="C10" s="14">
+        <v>15.017774985397701</v>
+      </c>
+      <c r="D10" s="22"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11" s="11" t="s">
         <v>1167</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B11" s="14" t="s">
         <v>1176</v>
       </c>
-      <c r="C10" s="12">
-        <v>1E-3</v>
-      </c>
-      <c r="D10">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="C11" s="14">
+        <v>7.9103184419473003</v>
+      </c>
+      <c r="D11" s="22"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12" s="11" t="s">
         <v>1140</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B12" s="14" t="s">
         <v>1177</v>
       </c>
-      <c r="C11" s="13">
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="D11">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="C12" s="14">
+        <v>5.6380052165625596</v>
+      </c>
+      <c r="D12" s="22"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13" s="11" t="s">
         <v>1141</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B13" s="14" t="s">
         <v>1178</v>
       </c>
-      <c r="C12" s="12">
-        <v>1E-3</v>
-      </c>
-      <c r="D12">
-        <v>2004</v>
-      </c>
+      <c r="C13" s="14">
+        <v>7.2609725670929501</v>
+      </c>
+      <c r="D13" s="22"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14" s="4" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C14" s="14">
+        <v>-0.62353002536402502</v>
+      </c>
+      <c r="D14" s="22"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A15" s="4" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C15" s="14">
+        <v>3.38958383116434</v>
+      </c>
+      <c r="D15" s="22"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A16" s="4" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C16" s="14">
+        <v>-1.8112438843782599</v>
+      </c>
+      <c r="D16" s="22"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A17" s="4" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C17" s="14">
+        <v>-0.99506078932709596</v>
+      </c>
+      <c r="D17" s="22"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A18" s="4" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C18" s="14">
+        <v>1.3778274659888401</v>
+      </c>
+      <c r="D18" s="22"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A19" s="4" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C19">
+        <v>4.8415419900221801</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A20" s="4" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C20">
+        <v>4.1628650551214799</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1203</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A25" s="4" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B25" s="24">
+        <v>5.0873545003881498E-2</v>
+      </c>
+      <c r="C25" s="25">
+        <v>5.5168867728342098E-2</v>
+      </c>
+      <c r="D25" s="22">
+        <v>8.1601508033531001E-2</v>
+      </c>
+      <c r="E25" s="22">
+        <f>(B25*$H$1+C25*$H$2+D25*$H$3)*$H$7</f>
+        <v>562.93176229726373</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A26" s="4" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B26" s="24">
+        <v>6.8109047288783295E-2</v>
+      </c>
+      <c r="C26" s="25">
+        <v>1.44337015578583E-2</v>
+      </c>
+      <c r="D26" s="22">
+        <v>8.0666114336165294E-3</v>
+      </c>
+      <c r="E26" s="22">
+        <f t="shared" ref="E26:E39" si="0">(B26*$H$1+C26*$H$2+D26*$H$3)*$H$7</f>
+        <v>271.82808084077431</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A27" s="4" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B27" s="24">
+        <v>0.171087621662115</v>
+      </c>
+      <c r="C27" s="25">
+        <v>4.2428111466917898E-2</v>
+      </c>
+      <c r="D27" s="22">
+        <v>4.7137324342540497E-2</v>
+      </c>
+      <c r="E27" s="22">
+        <f t="shared" si="0"/>
+        <v>781.95917241472011</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A28" s="11" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B28" s="24">
+        <v>0.101813116231249</v>
+      </c>
+      <c r="C28" s="25">
+        <v>3.8855345421091099E-2</v>
+      </c>
+      <c r="D28" s="22">
+        <v>0.13063896155325699</v>
+      </c>
+      <c r="E28" s="22">
+        <f t="shared" si="0"/>
+        <v>813.92226961679137</v>
+      </c>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A29" s="4" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B29" s="24">
+        <v>0.14064578353097301</v>
+      </c>
+      <c r="C29" s="25">
+        <v>0.111548151518472</v>
+      </c>
+      <c r="D29" s="22">
+        <v>0.109304655549396</v>
+      </c>
+      <c r="E29" s="22">
+        <f t="shared" si="0"/>
+        <v>1084.4957717965231</v>
+      </c>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A30" s="4" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B30" s="24">
+        <v>4.2828761584620102E-2</v>
+      </c>
+      <c r="C30" s="25">
+        <v>5.2763798298505797E-2</v>
+      </c>
+      <c r="D30" s="22">
+        <v>3.03566613092737E-2</v>
+      </c>
+      <c r="E30" s="22">
+        <f t="shared" si="0"/>
+        <v>377.84766357719877</v>
+      </c>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A31" s="11" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B31" s="24">
+        <v>4.8242679825534797E-3</v>
+      </c>
+      <c r="C31" s="25">
+        <v>3.7503146497552403E-2</v>
+      </c>
+      <c r="D31" s="22">
+        <v>3.6450416199992501E-2</v>
+      </c>
+      <c r="E31" s="22">
+        <f t="shared" si="0"/>
+        <v>236.33349204029514</v>
+      </c>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A32" s="11" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B32" s="24">
+        <v>0.16000712445495999</v>
+      </c>
+      <c r="C32" s="25">
+        <v>0.20869998388835201</v>
+      </c>
+      <c r="D32" s="22">
+        <v>4.0281253070407801E-2</v>
+      </c>
+      <c r="E32" s="22">
+        <f t="shared" si="0"/>
+        <v>1226.9650842411593</v>
+      </c>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A33" s="11" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B33" s="24">
+        <v>2.1776565914598301E-2</v>
+      </c>
+      <c r="C33" s="25">
+        <v>1.31345927738542E-2</v>
+      </c>
+      <c r="D33" s="22">
+        <v>9.1310327071816399E-5</v>
+      </c>
+      <c r="E33" s="22">
+        <f t="shared" si="0"/>
+        <v>105.00740704657294</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A34" s="11" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B34" s="24">
+        <v>2.9028747558857801E-2</v>
+      </c>
+      <c r="C34" s="25">
+        <v>4.5106125612494698E-2</v>
+      </c>
+      <c r="D34" s="22">
+        <v>1.5735434225547299E-2</v>
+      </c>
+      <c r="E34" s="22">
+        <f t="shared" si="0"/>
+        <v>269.6109221906994</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A35" s="11" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B35" s="26">
+        <v>2.6932607019152701E-2</v>
+      </c>
+      <c r="C35" s="22">
+        <v>4.06499083064287E-2</v>
+      </c>
+      <c r="D35" s="22">
+        <v>0.103380633267633</v>
+      </c>
+      <c r="E35" s="22">
+        <f t="shared" si="0"/>
+        <v>512.88944577964321</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A36" s="4" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B36" s="26">
+        <v>5.9961487293235999E-2</v>
+      </c>
+      <c r="C36" s="22">
+        <v>0.19079713278828001</v>
+      </c>
+      <c r="D36" s="22">
+        <v>6.5235490106567803E-2</v>
+      </c>
+      <c r="E36" s="22">
+        <f t="shared" si="0"/>
+        <v>947.98233056425136</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A37" s="4" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B37" s="26">
+        <v>6.5323818691483501E-2</v>
+      </c>
+      <c r="C37" s="22">
+        <v>0.11811248018446301</v>
+      </c>
+      <c r="D37" s="22">
+        <v>2.6408659301096499E-3</v>
+      </c>
+      <c r="E37" s="22">
+        <f t="shared" si="0"/>
+        <v>558.2314944181685</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A38" s="4" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B38" s="22">
+        <v>4.5010821072729697E-2</v>
+      </c>
+      <c r="C38" s="22">
+        <v>1.40695755529863E-2</v>
+      </c>
+      <c r="D38" s="22">
+        <v>0.16499948120093699</v>
+      </c>
+      <c r="E38" s="22">
+        <f t="shared" si="0"/>
+        <v>672.23963347995891</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A39" s="4" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B39" s="22">
+        <v>1.17766847108032E-2</v>
+      </c>
+      <c r="C39" s="22">
+        <v>1.6729078404399099E-2</v>
+      </c>
+      <c r="D39" s="22">
+        <v>0.16407939345011599</v>
+      </c>
+      <c r="E39" s="22">
+        <f t="shared" si="0"/>
+        <v>577.75546969595484</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A40" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;1#&amp;"Arial"&amp;10&amp;K000000---Internal Use---</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2C26636-5AEC-48A9-AFB3-C70FD8519A89}">
+  <dimension ref="A1:V42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B1" s="4" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>1163</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>1164</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>1165</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>1166</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>1167</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>1140</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>1141</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>1143</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>1145</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>1147</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>1149</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>1151</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>1136</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0.81792981476092996</v>
+      </c>
+      <c r="D2">
+        <v>0.90766117143884895</v>
+      </c>
+      <c r="E2">
+        <v>0.79722139187299801</v>
+      </c>
+      <c r="F2">
+        <v>0.69347297653583895</v>
+      </c>
+      <c r="G2">
+        <v>0.86665368274738197</v>
+      </c>
+      <c r="H2">
+        <v>0.86548232452803597</v>
+      </c>
+      <c r="I2">
+        <v>0.90424836542934095</v>
+      </c>
+      <c r="J2">
+        <v>0.91818842603273298</v>
+      </c>
+      <c r="K2">
+        <v>0.86114052379472805</v>
+      </c>
+      <c r="L2">
+        <v>0.73221756004427596</v>
+      </c>
+      <c r="M2">
+        <v>0.61508552597228205</v>
+      </c>
+      <c r="N2">
+        <v>-6.4374015457645097E-3</v>
+      </c>
+      <c r="O2">
+        <v>4.1017820178167498E-2</v>
+      </c>
+      <c r="P2">
+        <v>-0.102203002931189</v>
+      </c>
+      <c r="Q2">
+        <v>-0.14072573865037299</v>
+      </c>
+      <c r="R2">
+        <v>-0.11227794457483201</v>
+      </c>
+      <c r="S2">
+        <v>0.86872427326587298</v>
+      </c>
+      <c r="T2">
+        <v>0.86724626802845195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B3">
+        <v>0.81792981476092996</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0.78575272610168401</v>
+      </c>
+      <c r="E3">
+        <v>0.65999864064868596</v>
+      </c>
+      <c r="F3">
+        <v>0.54980108031744201</v>
+      </c>
+      <c r="G3">
+        <v>0.67388412581677704</v>
+      </c>
+      <c r="H3">
+        <v>0.68901079615104999</v>
+      </c>
+      <c r="I3">
+        <v>0.71938875359188303</v>
+      </c>
+      <c r="J3">
+        <v>0.768235159477623</v>
+      </c>
+      <c r="K3">
+        <v>0.68289548082478602</v>
+      </c>
+      <c r="L3">
+        <v>0.61528211496058005</v>
+      </c>
+      <c r="M3">
+        <v>0.50671169385995096</v>
+      </c>
+      <c r="N3">
+        <v>4.6725162079095897E-2</v>
+      </c>
+      <c r="O3">
+        <v>5.3199726539815098E-2</v>
+      </c>
+      <c r="P3">
+        <v>-5.9787860331790003E-2</v>
+      </c>
+      <c r="Q3">
+        <v>-5.8413211550719199E-2</v>
+      </c>
+      <c r="R3">
+        <v>-3.8887554753336197E-2</v>
+      </c>
+      <c r="S3">
+        <v>0.70642706880838702</v>
+      </c>
+      <c r="T3">
+        <v>0.71120847997409298</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A4" s="4" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B4">
+        <v>0.90766117143884895</v>
+      </c>
+      <c r="C4">
+        <v>0.78575272610168401</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0.67329074287493995</v>
+      </c>
+      <c r="F4">
+        <v>0.60806729536296</v>
+      </c>
+      <c r="G4">
+        <v>0.775353298060666</v>
+      </c>
+      <c r="H4">
+        <v>0.75799551957807099</v>
+      </c>
+      <c r="I4">
+        <v>0.83996530463330599</v>
+      </c>
+      <c r="J4">
+        <v>0.86500011204545002</v>
+      </c>
+      <c r="K4">
+        <v>0.78951855105983104</v>
+      </c>
+      <c r="L4">
+        <v>0.66148814740612305</v>
+      </c>
+      <c r="M4">
+        <v>0.47496965037698802</v>
+      </c>
+      <c r="N4">
+        <v>-3.22397429292427E-3</v>
+      </c>
+      <c r="O4">
+        <v>3.8076256636238398E-2</v>
+      </c>
+      <c r="P4">
+        <v>-8.6222396472892093E-2</v>
+      </c>
+      <c r="Q4">
+        <v>-0.11915887533894599</v>
+      </c>
+      <c r="R4">
+        <v>-8.5867795970147501E-2</v>
+      </c>
+      <c r="S4">
+        <v>0.79661423652629604</v>
+      </c>
+      <c r="T4">
+        <v>0.79845796601613594</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A5" s="11" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B5">
+        <v>0.79722139187299801</v>
+      </c>
+      <c r="C5">
+        <v>0.65999864064868596</v>
+      </c>
+      <c r="D5">
+        <v>0.67329074287493995</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.492504483513727</v>
+      </c>
+      <c r="G5">
+        <v>0.66168464962753104</v>
+      </c>
+      <c r="H5">
+        <v>0.71051877614087999</v>
+      </c>
+      <c r="I5">
+        <v>0.71073405115035104</v>
+      </c>
+      <c r="J5">
+        <v>0.65257539154761202</v>
+      </c>
+      <c r="K5">
+        <v>0.67511348394912096</v>
+      </c>
+      <c r="L5">
+        <v>0.70050976314289104</v>
+      </c>
+      <c r="M5">
+        <v>0.72774131851601098</v>
+      </c>
+      <c r="N5">
+        <v>8.7921550626148801E-2</v>
+      </c>
+      <c r="O5">
+        <v>0.109343554048786</v>
+      </c>
+      <c r="P5">
+        <v>-1.83209929105883E-2</v>
+      </c>
+      <c r="Q5">
+        <v>-3.28690814397265E-2</v>
+      </c>
+      <c r="R5">
+        <v>-2.0839054270066E-2</v>
+      </c>
+      <c r="S5">
+        <v>0.67760481999327904</v>
+      </c>
+      <c r="T5">
+        <v>0.66938029944531896</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A6" s="4" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B6">
+        <v>0.69347297653583895</v>
+      </c>
+      <c r="C6">
+        <v>0.54980108031744201</v>
+      </c>
+      <c r="D6">
+        <v>0.60806729536296</v>
+      </c>
+      <c r="E6">
+        <v>0.492504483513727</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.73881444139750196</v>
+      </c>
+      <c r="H6">
+        <v>0.52587033096868696</v>
+      </c>
+      <c r="I6">
+        <v>0.73977472130071897</v>
+      </c>
+      <c r="J6">
+        <v>0.53722075672374803</v>
+      </c>
+      <c r="K6">
+        <v>0.74940672297326905</v>
+      </c>
+      <c r="L6">
+        <v>0.51055481260934299</v>
+      </c>
+      <c r="M6">
+        <v>0.385391088890153</v>
+      </c>
+      <c r="N6">
+        <v>-3.9994711582795502E-2</v>
+      </c>
+      <c r="O6">
+        <v>-3.1494656997160399E-2</v>
+      </c>
+      <c r="P6">
+        <v>-7.9599676958986204E-2</v>
+      </c>
+      <c r="Q6">
+        <v>-0.13988790770374501</v>
+      </c>
+      <c r="R6">
+        <v>-0.128931802481178</v>
+      </c>
+      <c r="S6">
+        <v>0.69294041751110003</v>
+      </c>
+      <c r="T6">
+        <v>0.69604789681528001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A7" s="4" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B7">
+        <v>0.86665368274738197</v>
+      </c>
+      <c r="C7">
+        <v>0.67388412581677704</v>
+      </c>
+      <c r="D7">
+        <v>0.775353298060666</v>
+      </c>
+      <c r="E7">
+        <v>0.66168464962753104</v>
+      </c>
+      <c r="F7">
+        <v>0.73881444139750196</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0.70348644643138503</v>
+      </c>
+      <c r="I7">
+        <v>0.89058213638874995</v>
+      </c>
+      <c r="J7">
+        <v>0.69869446353864095</v>
+      </c>
+      <c r="K7">
+        <v>0.83415949418227098</v>
+      </c>
+      <c r="L7">
+        <v>0.68142315128955699</v>
+      </c>
+      <c r="M7">
+        <v>0.51998059297986898</v>
+      </c>
+      <c r="N7">
+        <v>-9.4087388840435299E-2</v>
+      </c>
+      <c r="O7">
+        <v>-6.0014178749926102E-2</v>
+      </c>
+      <c r="P7">
+        <v>-0.174237056159146</v>
+      </c>
+      <c r="Q7">
+        <v>-0.23437913691464199</v>
+      </c>
+      <c r="R7">
+        <v>-0.20683811456279899</v>
+      </c>
+      <c r="S7">
+        <v>0.79509867143189705</v>
+      </c>
+      <c r="T7">
+        <v>0.78216874047200402</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A8" s="4" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B8">
+        <v>0.86548232452803597</v>
+      </c>
+      <c r="C8">
+        <v>0.68901079615104999</v>
+      </c>
+      <c r="D8">
+        <v>0.75799551957807099</v>
+      </c>
+      <c r="E8">
+        <v>0.71051877614087999</v>
+      </c>
+      <c r="F8">
+        <v>0.52587033096868696</v>
+      </c>
+      <c r="G8">
+        <v>0.70348644643138503</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>0.74880841781670004</v>
+      </c>
+      <c r="J8">
+        <v>0.78007231934028398</v>
+      </c>
+      <c r="K8">
+        <v>0.71422683526298503</v>
+      </c>
+      <c r="L8">
+        <v>0.62450697640765995</v>
+      </c>
+      <c r="M8">
+        <v>0.54128708814602799</v>
+      </c>
+      <c r="N8">
+        <v>-1.24710775848394E-2</v>
+      </c>
+      <c r="O8">
+        <v>3.3836519055937798E-2</v>
+      </c>
+      <c r="P8">
+        <v>-8.5870628289079598E-2</v>
+      </c>
+      <c r="Q8">
+        <v>-0.116502663686526</v>
+      </c>
+      <c r="R8">
+        <v>-9.2862927353497202E-2</v>
+      </c>
+      <c r="S8">
+        <v>0.72863321032139905</v>
+      </c>
+      <c r="T8">
+        <v>0.72320771479591395</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A9" s="11" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B9">
+        <v>0.90424836542934095</v>
+      </c>
+      <c r="C9">
+        <v>0.71938875359188303</v>
+      </c>
+      <c r="D9">
+        <v>0.83996530463330599</v>
+      </c>
+      <c r="E9">
+        <v>0.71073405115035104</v>
+      </c>
+      <c r="F9">
+        <v>0.73977472130071897</v>
+      </c>
+      <c r="G9">
+        <v>0.89058213638874995</v>
+      </c>
+      <c r="H9">
+        <v>0.74880841781670004</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0.77461630844541296</v>
+      </c>
+      <c r="K9">
+        <v>0.90349811384589196</v>
+      </c>
+      <c r="L9">
+        <v>0.69240201943691004</v>
+      </c>
+      <c r="M9">
+        <v>0.54884522533426605</v>
+      </c>
+      <c r="N9">
+        <v>-3.8897528986143202E-2</v>
+      </c>
+      <c r="O9">
+        <v>4.23682589713472E-4</v>
+      </c>
+      <c r="P9">
+        <v>-0.108713940367086</v>
+      </c>
+      <c r="Q9">
+        <v>-0.16219011919710599</v>
+      </c>
+      <c r="R9">
+        <v>-0.13793502409258801</v>
+      </c>
+      <c r="S9">
+        <v>0.83337926931795703</v>
+      </c>
+      <c r="T9">
+        <v>0.82459941250174495</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A10" s="11" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B10">
+        <v>0.91818842603273298</v>
+      </c>
+      <c r="C10">
+        <v>0.768235159477623</v>
+      </c>
+      <c r="D10">
+        <v>0.86500011204545002</v>
+      </c>
+      <c r="E10">
+        <v>0.65257539154761202</v>
+      </c>
+      <c r="F10">
+        <v>0.53722075672374803</v>
+      </c>
+      <c r="G10">
+        <v>0.69869446353864095</v>
+      </c>
+      <c r="H10">
+        <v>0.78007231934028398</v>
+      </c>
+      <c r="I10">
+        <v>0.77461630844541296</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>0.73601271330840801</v>
+      </c>
+      <c r="L10">
+        <v>0.596949352211809</v>
+      </c>
+      <c r="M10">
+        <v>0.46350784504669901</v>
+      </c>
+      <c r="N10">
+        <v>5.7833924545758501E-3</v>
+      </c>
+      <c r="O10">
+        <v>4.8953984989889399E-2</v>
+      </c>
+      <c r="P10">
+        <v>-9.2707145599947194E-2</v>
+      </c>
+      <c r="Q10">
+        <v>-0.112818610892718</v>
+      </c>
+      <c r="R10">
+        <v>-7.7429562753176501E-2</v>
+      </c>
+      <c r="S10">
+        <v>0.77199061113767098</v>
+      </c>
+      <c r="T10">
+        <v>0.78144762956860703</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A11" s="11" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B11">
+        <v>0.86114052379472805</v>
+      </c>
+      <c r="C11">
+        <v>0.68289548082478602</v>
+      </c>
+      <c r="D11">
+        <v>0.78951855105983104</v>
+      </c>
+      <c r="E11">
+        <v>0.67511348394912096</v>
+      </c>
+      <c r="F11">
+        <v>0.74940672297326905</v>
+      </c>
+      <c r="G11">
+        <v>0.83415949418227098</v>
+      </c>
+      <c r="H11">
+        <v>0.71422683526298503</v>
+      </c>
+      <c r="I11">
+        <v>0.90349811384589196</v>
+      </c>
+      <c r="J11">
+        <v>0.73601271330840801</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.64463146824907303</v>
+      </c>
+      <c r="M11">
+        <v>0.52134593946810204</v>
+      </c>
+      <c r="N11">
+        <v>-4.4788371276697402E-2</v>
+      </c>
+      <c r="O11">
+        <v>-1.0350404991203699E-3</v>
+      </c>
+      <c r="P11">
+        <v>-9.7769570117990895E-2</v>
+      </c>
+      <c r="Q11">
+        <v>-0.15657110609462699</v>
+      </c>
+      <c r="R11">
+        <v>-0.14199946765656199</v>
+      </c>
+      <c r="S11">
+        <v>0.82451855711362099</v>
+      </c>
+      <c r="T11">
+        <v>0.82580774323384698</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A12" s="11" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B12">
+        <v>0.73221756004427596</v>
+      </c>
+      <c r="C12">
+        <v>0.61528211496058005</v>
+      </c>
+      <c r="D12">
+        <v>0.66148814740612305</v>
+      </c>
+      <c r="E12">
+        <v>0.70050976314289104</v>
+      </c>
+      <c r="F12">
+        <v>0.51055481260934299</v>
+      </c>
+      <c r="G12">
+        <v>0.68142315128955699</v>
+      </c>
+      <c r="H12">
+        <v>0.62450697640765995</v>
+      </c>
+      <c r="I12">
+        <v>0.69240201943691004</v>
+      </c>
+      <c r="J12">
+        <v>0.596949352211809</v>
+      </c>
+      <c r="K12">
+        <v>0.64463146824907303</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.73628677004224297</v>
+      </c>
+      <c r="N12">
+        <v>0.189762017284613</v>
+      </c>
+      <c r="O12">
+        <v>0.21372180610762601</v>
+      </c>
+      <c r="P12">
+        <v>0.12876051417565901</v>
+      </c>
+      <c r="Q12">
+        <v>0.111513988178759</v>
+      </c>
+      <c r="R12">
+        <v>0.110505847508928</v>
+      </c>
+      <c r="S12">
+        <v>0.65354881659444897</v>
+      </c>
+      <c r="T12">
+        <v>0.64813430282372997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A13" s="11" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B13">
+        <v>0.61508552597228205</v>
+      </c>
+      <c r="C13">
+        <v>0.50671169385995096</v>
+      </c>
+      <c r="D13">
+        <v>0.47496965037698802</v>
+      </c>
+      <c r="E13">
+        <v>0.72774131851601098</v>
+      </c>
+      <c r="F13">
+        <v>0.385391088890153</v>
+      </c>
+      <c r="G13">
+        <v>0.51998059297986898</v>
+      </c>
+      <c r="H13">
+        <v>0.54128708814602799</v>
+      </c>
+      <c r="I13">
+        <v>0.54884522533426605</v>
+      </c>
+      <c r="J13">
+        <v>0.46350784504669901</v>
+      </c>
+      <c r="K13">
+        <v>0.52134593946810204</v>
+      </c>
+      <c r="L13">
+        <v>0.73628677004224297</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>0.190125243160952</v>
+      </c>
+      <c r="O13">
+        <v>0.23007239357453599</v>
+      </c>
+      <c r="P13">
+        <v>0.14336525108876999</v>
+      </c>
+      <c r="Q13">
+        <v>0.12674810162288699</v>
+      </c>
+      <c r="R13">
+        <v>0.130270618037064</v>
+      </c>
+      <c r="S13">
+        <v>0.52032467407077199</v>
+      </c>
+      <c r="T13">
+        <v>0.50972731384418402</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A14" s="4" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B14">
+        <v>-6.4374015457645097E-3</v>
+      </c>
+      <c r="C14">
+        <v>4.6725162079095897E-2</v>
+      </c>
+      <c r="D14">
+        <v>-3.22397429292427E-3</v>
+      </c>
+      <c r="E14">
+        <v>8.7921550626148801E-2</v>
+      </c>
+      <c r="F14">
+        <v>-3.9994711582795502E-2</v>
+      </c>
+      <c r="G14">
+        <v>-9.4087388840435299E-2</v>
+      </c>
+      <c r="H14">
+        <v>-1.24710775848394E-2</v>
+      </c>
+      <c r="I14">
+        <v>-3.8897528986143202E-2</v>
+      </c>
+      <c r="J14">
+        <v>5.7833924545758501E-3</v>
+      </c>
+      <c r="K14">
+        <v>-4.4788371276697402E-2</v>
+      </c>
+      <c r="L14">
+        <v>0.189762017284613</v>
+      </c>
+      <c r="M14">
+        <v>0.190125243160952</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0.59556652104132801</v>
+      </c>
+      <c r="P14">
+        <v>0.66637770430833698</v>
+      </c>
+      <c r="Q14">
+        <v>0.85244150051256296</v>
+      </c>
+      <c r="R14">
+        <v>0.86883415883930504</v>
+      </c>
+      <c r="S14">
+        <v>1.34271891795193E-2</v>
+      </c>
+      <c r="T14">
+        <v>1.9373865770857101E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A15" s="4" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B15">
+        <v>4.1017820178167498E-2</v>
+      </c>
+      <c r="C15">
+        <v>5.3199726539815098E-2</v>
+      </c>
+      <c r="D15">
+        <v>3.8076256636238398E-2</v>
+      </c>
+      <c r="E15">
+        <v>0.109343554048786</v>
+      </c>
+      <c r="F15">
+        <v>-3.1494656997160399E-2</v>
+      </c>
+      <c r="G15">
+        <v>-6.0014178749926102E-2</v>
+      </c>
+      <c r="H15">
+        <v>3.3836519055937798E-2</v>
+      </c>
+      <c r="I15">
+        <v>4.23682589713472E-4</v>
+      </c>
+      <c r="J15">
+        <v>4.8953984989889399E-2</v>
+      </c>
+      <c r="K15">
+        <v>-1.0350404991203699E-3</v>
+      </c>
+      <c r="L15">
+        <v>0.21372180610762601</v>
+      </c>
+      <c r="M15">
+        <v>0.23007239357453599</v>
+      </c>
+      <c r="N15">
+        <v>0.59556652104132801</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>0.50717699367402602</v>
+      </c>
+      <c r="Q15">
+        <v>0.61348931550324604</v>
+      </c>
+      <c r="R15">
+        <v>0.613308685776916</v>
+      </c>
+      <c r="S15">
+        <v>3.11251323509916E-2</v>
+      </c>
+      <c r="T15">
+        <v>3.9191958836608698E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A16" s="4" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B16">
+        <v>-0.102203002931189</v>
+      </c>
+      <c r="C16">
+        <v>-5.9787860331790003E-2</v>
+      </c>
+      <c r="D16">
+        <v>-8.6222396472892093E-2</v>
+      </c>
+      <c r="E16">
+        <v>-1.83209929105883E-2</v>
+      </c>
+      <c r="F16">
+        <v>-7.9599676958986204E-2</v>
+      </c>
+      <c r="G16">
+        <v>-0.174237056159146</v>
+      </c>
+      <c r="H16">
+        <v>-8.5870628289079598E-2</v>
+      </c>
+      <c r="I16">
+        <v>-0.108713940367086</v>
+      </c>
+      <c r="J16">
+        <v>-9.2707145599947194E-2</v>
+      </c>
+      <c r="K16">
+        <v>-9.7769570117990895E-2</v>
+      </c>
+      <c r="L16">
+        <v>0.12876051417565901</v>
+      </c>
+      <c r="M16">
+        <v>0.14336525108876999</v>
+      </c>
+      <c r="N16">
+        <v>0.66637770430833698</v>
+      </c>
+      <c r="O16">
+        <v>0.50717699367402602</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>0.79759295252804296</v>
+      </c>
+      <c r="R16">
+        <v>0.65176307696337898</v>
+      </c>
+      <c r="S16">
+        <v>-4.4899573648128001E-2</v>
+      </c>
+      <c r="T16">
+        <v>-3.5910506590023802E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A17" s="4" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B17">
+        <v>-0.14072573865037299</v>
+      </c>
+      <c r="C17">
+        <v>-5.8413211550719199E-2</v>
+      </c>
+      <c r="D17">
+        <v>-0.11915887533894599</v>
+      </c>
+      <c r="E17">
+        <v>-3.28690814397265E-2</v>
+      </c>
+      <c r="F17">
+        <v>-0.13988790770374501</v>
+      </c>
+      <c r="G17">
+        <v>-0.23437913691464199</v>
+      </c>
+      <c r="H17">
+        <v>-0.116502663686526</v>
+      </c>
+      <c r="I17">
+        <v>-0.16219011919710599</v>
+      </c>
+      <c r="J17">
+        <v>-0.112818610892718</v>
+      </c>
+      <c r="K17">
+        <v>-0.15657110609462699</v>
+      </c>
+      <c r="L17">
+        <v>0.111513988178759</v>
+      </c>
+      <c r="M17">
+        <v>0.12674810162288699</v>
+      </c>
+      <c r="N17">
+        <v>0.85244150051256296</v>
+      </c>
+      <c r="O17">
+        <v>0.61348931550324604</v>
+      </c>
+      <c r="P17">
+        <v>0.79759295252804296</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>0.87603798669117305</v>
+      </c>
+      <c r="S17">
+        <v>-0.10792533725221699</v>
+      </c>
+      <c r="T17">
+        <v>-9.98464578857092E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A18" s="4" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B18">
+        <v>-0.11227794457483201</v>
+      </c>
+      <c r="C18">
+        <v>-3.8887554753336197E-2</v>
+      </c>
+      <c r="D18">
+        <v>-8.5867795970147501E-2</v>
+      </c>
+      <c r="E18">
+        <v>-2.0839054270066E-2</v>
+      </c>
+      <c r="F18">
+        <v>-0.128931802481178</v>
+      </c>
+      <c r="G18">
+        <v>-0.20683811456279899</v>
+      </c>
+      <c r="H18">
+        <v>-9.2862927353497202E-2</v>
+      </c>
+      <c r="I18">
+        <v>-0.13793502409258801</v>
+      </c>
+      <c r="J18">
+        <v>-7.7429562753176501E-2</v>
+      </c>
+      <c r="K18">
+        <v>-0.14199946765656199</v>
+      </c>
+      <c r="L18">
+        <v>0.110505847508928</v>
+      </c>
+      <c r="M18">
+        <v>0.130270618037064</v>
+      </c>
+      <c r="N18">
+        <v>0.86883415883930504</v>
+      </c>
+      <c r="O18">
+        <v>0.613308685776916</v>
+      </c>
+      <c r="P18">
+        <v>0.65176307696337898</v>
+      </c>
+      <c r="Q18">
+        <v>0.87603798669117305</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>-0.100526676625351</v>
+      </c>
+      <c r="T18">
+        <v>-9.2458384746204395E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A19" s="4" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B19">
+        <v>0.86872427326587298</v>
+      </c>
+      <c r="C19">
+        <v>0.70642706880838702</v>
+      </c>
+      <c r="D19">
+        <v>0.79661423652629604</v>
+      </c>
+      <c r="E19">
+        <v>0.67760481999327904</v>
+      </c>
+      <c r="F19">
+        <v>0.69294041751110003</v>
+      </c>
+      <c r="G19">
+        <v>0.79509867143189705</v>
+      </c>
+      <c r="H19">
+        <v>0.72863321032139905</v>
+      </c>
+      <c r="I19">
+        <v>0.83337926931795703</v>
+      </c>
+      <c r="J19">
+        <v>0.77199061113767098</v>
+      </c>
+      <c r="K19">
+        <v>0.82451855711362099</v>
+      </c>
+      <c r="L19">
+        <v>0.65354881659444897</v>
+      </c>
+      <c r="M19">
+        <v>0.52032467407077199</v>
+      </c>
+      <c r="N19">
+        <v>1.34271891795193E-2</v>
+      </c>
+      <c r="O19">
+        <v>3.11251323509916E-2</v>
+      </c>
+      <c r="P19">
+        <v>-4.4899573648128001E-2</v>
+      </c>
+      <c r="Q19">
+        <v>-0.10792533725221699</v>
+      </c>
+      <c r="R19">
+        <v>-0.100526676625351</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>0.98543232949399595</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A20" s="4" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B20">
+        <v>0.86724626802845195</v>
+      </c>
+      <c r="C20">
+        <v>0.71120847997409298</v>
+      </c>
+      <c r="D20">
+        <v>0.79845796601613594</v>
+      </c>
+      <c r="E20">
+        <v>0.66938029944531896</v>
+      </c>
+      <c r="F20">
+        <v>0.69604789681528001</v>
+      </c>
+      <c r="G20">
+        <v>0.78216874047200402</v>
+      </c>
+      <c r="H20">
+        <v>0.72320771479591395</v>
+      </c>
+      <c r="I20">
+        <v>0.82459941250174495</v>
+      </c>
+      <c r="J20">
+        <v>0.78144762956860703</v>
+      </c>
+      <c r="K20">
+        <v>0.82580774323384698</v>
+      </c>
+      <c r="L20">
+        <v>0.64813430282372997</v>
+      </c>
+      <c r="M20">
+        <v>0.50972731384418402</v>
+      </c>
+      <c r="N20">
+        <v>1.9373865770857101E-2</v>
+      </c>
+      <c r="O20">
+        <v>3.9191958836608698E-2</v>
+      </c>
+      <c r="P20">
+        <v>-3.5910506590023802E-2</v>
+      </c>
+      <c r="Q20">
+        <v>-9.98464578857092E-2</v>
+      </c>
+      <c r="R20">
+        <v>-9.2458384746204395E-2</v>
+      </c>
+      <c r="S20">
+        <v>0.98543232949399595</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="B23" s="4" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>1163</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>1164</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>1165</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>1166</v>
+      </c>
+      <c r="K23" s="11" t="s">
+        <v>1167</v>
+      </c>
+      <c r="L23" s="11" t="s">
+        <v>1140</v>
+      </c>
+      <c r="M23" s="11" t="s">
+        <v>1141</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>1143</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>1145</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>1147</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>1149</v>
+      </c>
+      <c r="R23" s="4" t="s">
+        <v>1151</v>
+      </c>
+      <c r="S23" s="4" t="s">
+        <v>1136</v>
+      </c>
+      <c r="T23" s="4" t="s">
+        <v>1138</v>
+      </c>
+      <c r="V23" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A24" s="4" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B24">
+        <f>(1-B2)*VLOOKUP($A2,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <f>(1-C2)*VLOOKUP($A2,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>2.2818019442186683</v>
+      </c>
+      <c r="D24">
+        <f>(1-D2)*VLOOKUP($A2,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>1.1572400954118178</v>
+      </c>
+      <c r="E24">
+        <f>(1-E2)*VLOOKUP($A2,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>2.5413310897805288</v>
+      </c>
+      <c r="F24">
+        <f>(1-F2)*VLOOKUP($A2,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>3.8415622919133168</v>
+      </c>
+      <c r="G24">
+        <f>(1-G2)*VLOOKUP($A2,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>1.6711681023551272</v>
+      </c>
+      <c r="H24">
+        <f>(1-H2)*VLOOKUP($A2,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>1.6858481965109642</v>
+      </c>
+      <c r="I24">
+        <f>(1-I2)*VLOOKUP($A2,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>1.2000112244547811</v>
+      </c>
+      <c r="J24">
+        <f>(1-J2)*VLOOKUP($A2,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>1.0253068523711288</v>
+      </c>
+      <c r="K24">
+        <f>(1-K2)*VLOOKUP($A2,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>1.7402619894208979</v>
+      </c>
+      <c r="L24">
+        <f>(1-L2)*VLOOKUP($A2,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>3.3559942354991965</v>
+      </c>
+      <c r="M24">
+        <f>(1-M2)*VLOOKUP($A2,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>4.8239561795419137</v>
+      </c>
+      <c r="N24">
+        <f>(1-N2)*VLOOKUP($A2,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>12.613217351133397</v>
+      </c>
+      <c r="O24">
+        <f>(1-O2)*VLOOKUP($A2,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>12.018482869752974</v>
+      </c>
+      <c r="P24">
+        <f>(1-P2)*VLOOKUP($A2,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>13.813403615257876</v>
+      </c>
+      <c r="Q24">
+        <f>(1-Q2)*VLOOKUP($A2,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>14.296191355300193</v>
+      </c>
+      <c r="R24">
+        <f>(1-R2)*VLOOKUP($A2,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>13.939668227995918</v>
+      </c>
+      <c r="S24">
+        <f>(1-S2)*VLOOKUP($A2,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>1.6452183431204139</v>
+      </c>
+      <c r="T24">
+        <f>(1-T2)*VLOOKUP($A2,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>1.6637415034054674</v>
+      </c>
+      <c r="V24">
+        <f>SUM(B24:T24)</f>
+        <v>95.314405467444573</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A25" s="4" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B25">
+        <f>(1-B3)*VLOOKUP($A3,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>1.2334799657902999</v>
+      </c>
+      <c r="C25">
+        <f>(1-C3)*VLOOKUP($A3,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <f>(1-D3)*VLOOKUP($A3,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>1.4514716933569132</v>
+      </c>
+      <c r="E25">
+        <f>(1-E3)*VLOOKUP($A3,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>2.3034241688205821</v>
+      </c>
+      <c r="F25">
+        <f>(1-F3)*VLOOKUP($A3,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>3.0499850775661681</v>
+      </c>
+      <c r="G25">
+        <f>(1-G3)*VLOOKUP($A3,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>2.2093534798297996</v>
+      </c>
+      <c r="H25">
+        <f>(1-H3)*VLOOKUP($A3,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>2.1068740717820713</v>
+      </c>
+      <c r="I25">
+        <f>(1-I3)*VLOOKUP($A3,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>1.9010710082233861</v>
+      </c>
+      <c r="J25">
+        <f>(1-J3)*VLOOKUP($A3,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>1.5701488257594749</v>
+      </c>
+      <c r="K25">
+        <f>(1-K3)*VLOOKUP($A3,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>2.1483038035612334</v>
+      </c>
+      <c r="L25">
+        <f>(1-L3)*VLOOKUP($A3,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>2.6063674459068404</v>
+      </c>
+      <c r="M25">
+        <f>(1-M3)*VLOOKUP($A3,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>3.3419048933433739</v>
+      </c>
+      <c r="N25">
+        <f>(1-N3)*VLOOKUP($A3,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>6.4581985948081986</v>
+      </c>
+      <c r="O25">
+        <f>(1-O3)*VLOOKUP($A3,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>6.4143350399981207</v>
+      </c>
+      <c r="P25">
+        <f>(1-P3)*VLOOKUP($A3,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>7.1797976807161321</v>
+      </c>
+      <c r="Q25">
+        <f>(1-Q3)*VLOOKUP($A3,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>7.170484779050093</v>
+      </c>
+      <c r="R25">
+        <f>(1-R3)*VLOOKUP($A3,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>7.0382033379846902</v>
+      </c>
+      <c r="S25">
+        <f>(1-S3)*VLOOKUP($A3,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>1.9888831806685234</v>
+      </c>
+      <c r="T25">
+        <f>(1-T3)*VLOOKUP($A3,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>1.9564903159424281</v>
+      </c>
+      <c r="V25">
+        <f t="shared" ref="V25:V42" si="0">SUM(B25:T25)</f>
+        <v>62.128777363108327</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A26" s="4" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B26">
+        <f>(1-B4)*VLOOKUP($A4,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>1.3117460810445638</v>
+      </c>
+      <c r="C26">
+        <f>(1-C4)*VLOOKUP($A4,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>3.0435519519773946</v>
+      </c>
+      <c r="D26">
+        <f>(1-D4)*VLOOKUP($A4,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <f>(1-E4)*VLOOKUP($A4,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>4.6411633583911689</v>
+      </c>
+      <c r="F26">
+        <f>(1-F4)*VLOOKUP($A4,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>5.5677140088512402</v>
+      </c>
+      <c r="G26">
+        <f>(1-G4)*VLOOKUP($A4,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>3.1912840511438501</v>
+      </c>
+      <c r="H26">
+        <f>(1-H4)*VLOOKUP($A4,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>3.4378650209804444</v>
+      </c>
+      <c r="I26">
+        <f>(1-I4)*VLOOKUP($A4,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>2.2734194027531927</v>
+      </c>
+      <c r="J26">
+        <f>(1-J4)*VLOOKUP($A4,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>1.9177801659955203</v>
+      </c>
+      <c r="K26">
+        <f>(1-K4)*VLOOKUP($A4,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>2.9900554304411937</v>
+      </c>
+      <c r="L26">
+        <f>(1-L4)*VLOOKUP($A4,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>4.8088285604910856</v>
+      </c>
+      <c r="M26">
+        <f>(1-M4)*VLOOKUP($A4,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>7.4584713091887425</v>
+      </c>
+      <c r="N26">
+        <f>(1-N4)*VLOOKUP($A4,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>14.251589902044252</v>
+      </c>
+      <c r="O26">
+        <f>(1-O4)*VLOOKUP($A4,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>13.664887461567792</v>
+      </c>
+      <c r="P26">
+        <f>(1-P4)*VLOOKUP($A4,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>15.430648124072206</v>
+      </c>
+      <c r="Q26">
+        <f>(1-Q4)*VLOOKUP($A4,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>15.898536852456296</v>
+      </c>
+      <c r="R26">
+        <f>(1-R4)*VLOOKUP($A4,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>15.425610743513458</v>
+      </c>
+      <c r="S26">
+        <f>(1-S4)*VLOOKUP($A4,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>2.8892556071382987</v>
+      </c>
+      <c r="T26">
+        <f>(1-T4)*VLOOKUP($A4,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>2.8630639717180792</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="0"/>
+        <v>121.06547200376878</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A27" s="11" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B27">
+        <f>(1-B5)*VLOOKUP($A5,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>2.2051123618135318</v>
+      </c>
+      <c r="C27">
+        <f>(1-C5)*VLOOKUP($A5,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>3.6973387255396193</v>
+      </c>
+      <c r="D27">
+        <f>(1-D5)*VLOOKUP($A5,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>3.5527939966634632</v>
+      </c>
+      <c r="E27">
+        <f>(1-E5)*VLOOKUP($A5,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <f>(1-F5)*VLOOKUP($A5,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>5.5187509535913728</v>
+      </c>
+      <c r="G27">
+        <f>(1-G5)*VLOOKUP($A5,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>3.6790042509334451</v>
+      </c>
+      <c r="H27">
+        <f>(1-H5)*VLOOKUP($A5,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>3.1479584120868354</v>
+      </c>
+      <c r="I27">
+        <f>(1-I5)*VLOOKUP($A5,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>3.1456174078312147</v>
+      </c>
+      <c r="J27">
+        <f>(1-J5)*VLOOKUP($A5,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>3.7780627156527542</v>
+      </c>
+      <c r="K27">
+        <f>(1-K5)*VLOOKUP($A5,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>3.5329726313222802</v>
+      </c>
+      <c r="L27">
+        <f>(1-L5)*VLOOKUP($A5,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>3.2568012456346151</v>
+      </c>
+      <c r="M27">
+        <f>(1-M5)*VLOOKUP($A5,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>2.9606721818279067</v>
+      </c>
+      <c r="N27">
+        <f>(1-N5)*VLOOKUP($A5,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>9.9183808501059563</v>
+      </c>
+      <c r="O27">
+        <f>(1-O5)*VLOOKUP($A5,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>9.6854276554944043</v>
+      </c>
+      <c r="P27">
+        <f>(1-P5)*VLOOKUP($A5,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>11.073713497209649</v>
+      </c>
+      <c r="Q27">
+        <f>(1-Q5)*VLOOKUP($A5,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>11.231916426762593</v>
+      </c>
+      <c r="R27">
+        <f>(1-R5)*VLOOKUP($A5,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>11.101096110606973</v>
+      </c>
+      <c r="S27">
+        <f>(1-S5)*VLOOKUP($A5,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>3.505880641890319</v>
+      </c>
+      <c r="T27">
+        <f>(1-T5)*VLOOKUP($A5,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>3.5953180440789039</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="0"/>
+        <v>98.586818109045836</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A28" s="4" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B28">
+        <f>(1-B6)*VLOOKUP($A6,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>0.43786871207141403</v>
+      </c>
+      <c r="C28">
+        <f>(1-C6)*VLOOKUP($A6,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>0.64310160621251622</v>
+      </c>
+      <c r="D28">
+        <f>(1-D6)*VLOOKUP($A6,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>0.55986929523736351</v>
+      </c>
+      <c r="E28">
+        <f>(1-E6)*VLOOKUP($A6,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>0.72494883379129804</v>
+      </c>
+      <c r="F28">
+        <f>(1-F6)*VLOOKUP($A6,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <f>(1-G6)*VLOOKUP($A6,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>0.37309918996522057</v>
+      </c>
+      <c r="H28">
+        <f>(1-H6)*VLOOKUP($A6,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>0.67728628030037308</v>
+      </c>
+      <c r="I28">
+        <f>(1-I6)*VLOOKUP($A6,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>0.3717274462289008</v>
+      </c>
+      <c r="J28">
+        <f>(1-J6)*VLOOKUP($A6,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>0.66107238747401398</v>
+      </c>
+      <c r="K28">
+        <f>(1-K6)*VLOOKUP($A6,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>0.35796829338369557</v>
+      </c>
+      <c r="L28">
+        <f>(1-L6)*VLOOKUP($A6,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>0.69916424141102251</v>
+      </c>
+      <c r="M28">
+        <f>(1-M6)*VLOOKUP($A6,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>0.87795852154858367</v>
+      </c>
+      <c r="N28">
+        <f>(1-N6)*VLOOKUP($A6,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>1.4856150031257627</v>
+      </c>
+      <c r="O28">
+        <f>(1-O6)*VLOOKUP($A6,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>1.4734728177096572</v>
+      </c>
+      <c r="P28">
+        <f>(1-P6)*VLOOKUP($A6,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>1.5421900319272057</v>
+      </c>
+      <c r="Q28">
+        <f>(1-Q6)*VLOOKUP($A6,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>1.6283107584162952</v>
+      </c>
+      <c r="R28">
+        <f>(1-R6)*VLOOKUP($A6,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>1.6126601458572198</v>
+      </c>
+      <c r="S28">
+        <f>(1-S6)*VLOOKUP($A6,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>0.43862946370638922</v>
+      </c>
+      <c r="T28">
+        <f>(1-T6)*VLOOKUP($A6,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>0.43419048163775292</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="0"/>
+        <v>14.999133510004686</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A29" s="4" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B29">
+        <f>(1-B7)*VLOOKUP($A7,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>1.3460250527343209</v>
+      </c>
+      <c r="C29">
+        <f>(1-C7)*VLOOKUP($A7,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>3.2918804642604682</v>
+      </c>
+      <c r="D29">
+        <f>(1-D7)*VLOOKUP($A7,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>2.2676298457619879</v>
+      </c>
+      <c r="E29">
+        <f>(1-E7)*VLOOKUP($A7,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>3.4150244769282683</v>
+      </c>
+      <c r="F29">
+        <f>(1-F7)*VLOOKUP($A7,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>2.6364605527526721</v>
+      </c>
+      <c r="G29">
+        <f>(1-G7)*VLOOKUP($A7,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <f>(1-H7)*VLOOKUP($A7,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>2.9930685736339671</v>
+      </c>
+      <c r="I29">
+        <f>(1-I7)*VLOOKUP($A7,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>1.104486338069588</v>
+      </c>
+      <c r="J29">
+        <f>(1-J7)*VLOOKUP($A7,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>3.041439830964519</v>
+      </c>
+      <c r="K29">
+        <f>(1-K7)*VLOOKUP($A7,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>1.6740280510777474</v>
+      </c>
+      <c r="L29">
+        <f>(1-L7)*VLOOKUP($A7,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>3.2157799961812508</v>
+      </c>
+      <c r="M29">
+        <f>(1-M7)*VLOOKUP($A7,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>4.8454142638504996</v>
+      </c>
+      <c r="N29">
+        <f>(1-N7)*VLOOKUP($A7,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>11.043942312032536</v>
+      </c>
+      <c r="O29">
+        <f>(1-O7)*VLOOKUP($A7,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>10.70000034682611</v>
+      </c>
+      <c r="P29">
+        <f>(1-P7)*VLOOKUP($A7,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>11.852989478853994</v>
+      </c>
+      <c r="Q29">
+        <f>(1-Q7)*VLOOKUP($A7,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>12.46007596679282</v>
+      </c>
+      <c r="R29">
+        <f>(1-R7)*VLOOKUP($A7,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>12.182071243248281</v>
+      </c>
+      <c r="S29">
+        <f>(1-S7)*VLOOKUP($A7,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>2.0683160005740486</v>
+      </c>
+      <c r="T29">
+        <f>(1-T7)*VLOOKUP($A7,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>2.1988333733873535</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="0"/>
+        <v>92.33746616793043</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A30" s="4" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B30">
+        <f>(1-B8)*VLOOKUP($A8,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>1.8292866654540469</v>
+      </c>
+      <c r="C30">
+        <f>(1-C8)*VLOOKUP($A8,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>4.2290977873730915</v>
+      </c>
+      <c r="D30">
+        <f>(1-D8)*VLOOKUP($A8,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>3.2909843815152433</v>
+      </c>
+      <c r="E30">
+        <f>(1-E8)*VLOOKUP($A8,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>3.9366138378980011</v>
+      </c>
+      <c r="F30">
+        <f>(1-F8)*VLOOKUP($A8,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>6.4476216840060312</v>
+      </c>
+      <c r="G30">
+        <f>(1-G8)*VLOOKUP($A8,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>4.0322454857057766</v>
+      </c>
+      <c r="H30">
+        <f>(1-H8)*VLOOKUP($A8,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <f>(1-I8)*VLOOKUP($A8,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>3.4159184668484968</v>
+      </c>
+      <c r="J30">
+        <f>(1-J8)*VLOOKUP($A8,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>2.9907651331583072</v>
+      </c>
+      <c r="K30">
+        <f>(1-K8)*VLOOKUP($A8,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>3.8861884712464962</v>
+      </c>
+      <c r="L30">
+        <f>(1-L8)*VLOOKUP($A8,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>5.1062760237159237</v>
+      </c>
+      <c r="M30">
+        <f>(1-M8)*VLOOKUP($A8,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>6.2379714039955756</v>
+      </c>
+      <c r="N30">
+        <f>(1-N8)*VLOOKUP($A8,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>13.768449647123498</v>
+      </c>
+      <c r="O30">
+        <f>(1-O8)*VLOOKUP($A8,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>13.138719251121724</v>
+      </c>
+      <c r="P30">
+        <f>(1-P8)*VLOOKUP($A8,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>14.766599658878414</v>
+      </c>
+      <c r="Q30">
+        <f>(1-Q8)*VLOOKUP($A8,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>15.183160335322336</v>
+      </c>
+      <c r="R30">
+        <f>(1-R8)*VLOOKUP($A8,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>14.861686935658422</v>
+      </c>
+      <c r="S30">
+        <f>(1-S8)*VLOOKUP($A8,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>3.6902782334325881</v>
+      </c>
+      <c r="T30">
+        <f>(1-T8)*VLOOKUP($A8,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>3.7640587725582364</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="0"/>
+        <v>124.57592217501221</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A31" s="11" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B31">
+        <f>(1-B9)*VLOOKUP($A9,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>0.94002731236305159</v>
+      </c>
+      <c r="C31">
+        <f>(1-C9)*VLOOKUP($A9,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>2.7548588278690165</v>
+      </c>
+      <c r="D31">
+        <f>(1-D9)*VLOOKUP($A9,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>1.5711166210889014</v>
+      </c>
+      <c r="E31">
+        <f>(1-E9)*VLOOKUP($A9,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>2.839825071128411</v>
+      </c>
+      <c r="F31">
+        <f>(1-F9)*VLOOKUP($A9,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>2.5547226472055358</v>
+      </c>
+      <c r="G31">
+        <f>(1-G9)*VLOOKUP($A9,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>1.0741934664215977</v>
+      </c>
+      <c r="H31">
+        <f>(1-H9)*VLOOKUP($A9,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>2.466035686458619</v>
+      </c>
+      <c r="I31">
+        <f>(1-I9)*VLOOKUP($A9,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <f>(1-J9)*VLOOKUP($A9,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>2.2126705906641861</v>
+      </c>
+      <c r="K31">
+        <f>(1-K9)*VLOOKUP($A9,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>0.94739279476706462</v>
+      </c>
+      <c r="L31">
+        <f>(1-L9)*VLOOKUP($A9,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>3.019797043189353</v>
+      </c>
+      <c r="M31">
+        <f>(1-M9)*VLOOKUP($A9,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>4.4291443398371326</v>
+      </c>
+      <c r="N31">
+        <f>(1-N9)*VLOOKUP($A9,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>10.199220685603988</v>
+      </c>
+      <c r="O31">
+        <f>(1-O9)*VLOOKUP($A9,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>9.8131905880265418</v>
+      </c>
+      <c r="P31">
+        <f>(1-P9)*VLOOKUP($A9,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>10.884632833851235</v>
+      </c>
+      <c r="Q31">
+        <f>(1-Q9)*VLOOKUP($A9,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>11.409627199602077</v>
+      </c>
+      <c r="R31">
+        <f>(1-R9)*VLOOKUP($A9,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>11.171506440991061</v>
+      </c>
+      <c r="S31">
+        <f>(1-S9)*VLOOKUP($A9,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>1.6357740350784975</v>
+      </c>
+      <c r="T31">
+        <f>(1-T9)*VLOOKUP($A9,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>1.7219689626417005</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="0"/>
+        <v>81.645705146787975</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A32" s="11" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B32">
+        <f>(1-B10)*VLOOKUP($A10,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>1.2286278090416363</v>
+      </c>
+      <c r="C32">
+        <f>(1-C10)*VLOOKUP($A10,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>3.4805922244916405</v>
+      </c>
+      <c r="D32">
+        <f>(1-D10)*VLOOKUP($A10,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>2.0273979403553328</v>
+      </c>
+      <c r="E32">
+        <f>(1-E10)*VLOOKUP($A10,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>5.2175445941278626</v>
+      </c>
+      <c r="F32">
+        <f>(1-F10)*VLOOKUP($A10,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>6.9499145434353737</v>
+      </c>
+      <c r="G32">
+        <f>(1-G10)*VLOOKUP($A10,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>4.5249387484312331</v>
+      </c>
+      <c r="H32">
+        <f>(1-H10)*VLOOKUP($A10,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>3.3028244212080167</v>
+      </c>
+      <c r="I32">
+        <f>(1-I10)*VLOOKUP($A10,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>3.3847615651450682</v>
+      </c>
+      <c r="J32">
+        <f>(1-J10)*VLOOKUP($A10,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <f>(1-K10)*VLOOKUP($A10,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>3.9645016705400016</v>
+      </c>
+      <c r="L32">
+        <f>(1-L10)*VLOOKUP($A10,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>6.0529239362018341</v>
+      </c>
+      <c r="M32">
+        <f>(1-M10)*VLOOKUP($A10,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>8.0569184645197911</v>
+      </c>
+      <c r="N32">
+        <f>(1-N10)*VLOOKUP($A10,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>14.930921298862634</v>
+      </c>
+      <c r="O32">
+        <f>(1-O10)*VLOOKUP($A10,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>14.282595054181003</v>
+      </c>
+      <c r="P32">
+        <f>(1-P10)*VLOOKUP($A10,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>16.410030037556208</v>
+      </c>
+      <c r="Q32">
+        <f>(1-Q10)*VLOOKUP($A10,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>16.712059497949678</v>
+      </c>
+      <c r="R32">
+        <f>(1-R10)*VLOOKUP($A10,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>16.180594736042636</v>
+      </c>
+      <c r="S32">
+        <f>(1-S10)*VLOOKUP($A10,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>3.4241936964925017</v>
+      </c>
+      <c r="T32">
+        <f>(1-T10)*VLOOKUP($A10,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>3.2821703216639455</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="0"/>
+        <v>133.41351056024641</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A33" s="11" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B33">
+        <f>(1-B11)*VLOOKUP($A11,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>1.0984226754657049</v>
+      </c>
+      <c r="C33">
+        <f>(1-C11)*VLOOKUP($A11,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>2.5083977260565264</v>
+      </c>
+      <c r="D33">
+        <f>(1-D11)*VLOOKUP($A11,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>1.6649752872392076</v>
+      </c>
+      <c r="E33">
+        <f>(1-E11)*VLOOKUP($A11,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>2.5699557994572761</v>
+      </c>
+      <c r="F33">
+        <f>(1-F11)*VLOOKUP($A11,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>1.9822726206925585</v>
+      </c>
+      <c r="G33">
+        <f>(1-G11)*VLOOKUP($A11,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>1.3118512115918504</v>
+      </c>
+      <c r="H33">
+        <f>(1-H11)*VLOOKUP($A11,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>2.2605567352328535</v>
+      </c>
+      <c r="I33">
+        <f>(1-I11)*VLOOKUP($A11,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>0.7633606497275397</v>
+      </c>
+      <c r="J33">
+        <f>(1-J11)*VLOOKUP($A11,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>2.0882235023561293</v>
+      </c>
+      <c r="K33">
+        <f>(1-K11)*VLOOKUP($A11,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <f>(1-L11)*VLOOKUP($A11,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>2.8110782503970926</v>
+      </c>
+      <c r="M33">
+        <f>(1-M11)*VLOOKUP($A11,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>3.786306042338432</v>
+      </c>
+      <c r="N33">
+        <f>(1-N11)*VLOOKUP($A11,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>8.2646087212421424</v>
+      </c>
+      <c r="O33">
+        <f>(1-O11)*VLOOKUP($A11,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>7.9185059418956545</v>
+      </c>
+      <c r="P33">
+        <f>(1-P11)*VLOOKUP($A11,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>8.6837068755129021</v>
+      </c>
+      <c r="Q33">
+        <f>(1-Q11)*VLOOKUP($A11,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>9.1488457499637139</v>
+      </c>
+      <c r="R33">
+        <f>(1-R11)*VLOOKUP($A11,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>9.0335794496977009</v>
+      </c>
+      <c r="S33">
+        <f>(1-S11)*VLOOKUP($A11,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>1.3881140938836458</v>
+      </c>
+      <c r="T33">
+        <f>(1-T11)*VLOOKUP($A11,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>1.3779162211417195</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="0"/>
+        <v>68.66067755389264</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A34" s="11" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B34">
+        <f>(1-B12)*VLOOKUP($A12,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>1.5097587933742225</v>
+      </c>
+      <c r="C34">
+        <f>(1-C12)*VLOOKUP($A12,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>2.1690414427571647</v>
+      </c>
+      <c r="D34">
+        <f>(1-D12)*VLOOKUP($A12,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>1.9085315907925344</v>
+      </c>
+      <c r="E34">
+        <f>(1-E12)*VLOOKUP($A12,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>1.6885275177099368</v>
+      </c>
+      <c r="F34">
+        <f>(1-F12)*VLOOKUP($A12,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>2.7594945197299636</v>
+      </c>
+      <c r="G34">
+        <f>(1-G12)*VLOOKUP($A12,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>1.7961379349055391</v>
+      </c>
+      <c r="H34">
+        <f>(1-H12)*VLOOKUP($A12,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>2.1170316257964616</v>
+      </c>
+      <c r="I34">
+        <f>(1-I12)*VLOOKUP($A12,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>1.7342390190188099</v>
+      </c>
+      <c r="J34">
+        <f>(1-J12)*VLOOKUP($A12,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>2.2724016547687396</v>
+      </c>
+      <c r="K34">
+        <f>(1-K12)*VLOOKUP($A12,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>2.0035696358139039</v>
+      </c>
+      <c r="L34">
+        <f>(1-L12)*VLOOKUP($A12,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <f>(1-M12)*VLOOKUP($A12,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>1.4868165661783961</v>
+      </c>
+      <c r="N34">
+        <f>(1-N12)*VLOOKUP($A12,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>4.5681259732064765</v>
+      </c>
+      <c r="O34">
+        <f>(1-O12)*VLOOKUP($A12,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>4.433040558834592</v>
+      </c>
+      <c r="P34">
+        <f>(1-P12)*VLOOKUP($A12,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>4.9120527659529163</v>
+      </c>
+      <c r="Q34">
+        <f>(1-Q12)*VLOOKUP($A12,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>5.0092887694910209</v>
+      </c>
+      <c r="R34">
+        <f>(1-R12)*VLOOKUP($A12,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>5.0149726718465564</v>
+      </c>
+      <c r="S34">
+        <f>(1-S12)*VLOOKUP($A12,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>1.9532935793247688</v>
+      </c>
+      <c r="T34">
+        <f>(1-T12)*VLOOKUP($A12,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>1.9838206362092323</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="0"/>
+        <v>49.320145255711239</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A35" s="11" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B35">
+        <f>(1-B13)*VLOOKUP($A13,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>2.7948534365922719</v>
+      </c>
+      <c r="C35">
+        <f>(1-C13)*VLOOKUP($A13,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>3.5817528585506451</v>
+      </c>
+      <c r="D35">
+        <f>(1-D13)*VLOOKUP($A13,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>3.8122309655039106</v>
+      </c>
+      <c r="E35">
+        <f>(1-E13)*VLOOKUP($A13,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>1.9768628174081415</v>
+      </c>
+      <c r="F35">
+        <f>(1-F13)*VLOOKUP($A13,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>4.4626584430594685</v>
+      </c>
+      <c r="G35">
+        <f>(1-G13)*VLOOKUP($A13,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>3.4854077460453965</v>
+      </c>
+      <c r="H35">
+        <f>(1-H13)*VLOOKUP($A13,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>3.3307018691430175</v>
+      </c>
+      <c r="I35">
+        <f>(1-I13)*VLOOKUP($A13,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>3.2758224423608957</v>
+      </c>
+      <c r="J35">
+        <f>(1-J13)*VLOOKUP($A13,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>3.8954548195764991</v>
+      </c>
+      <c r="K35">
+        <f>(1-K13)*VLOOKUP($A13,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>3.4754940026497594</v>
+      </c>
+      <c r="L35">
+        <f>(1-L13)*VLOOKUP($A13,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>1.9148145283027487</v>
+      </c>
+      <c r="M35">
+        <f>(1-M13)*VLOOKUP($A13,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <f>(1-N13)*VLOOKUP($A13,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>5.880478392189401</v>
+      </c>
+      <c r="O35">
+        <f>(1-O13)*VLOOKUP($A13,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>5.5904232289028322</v>
+      </c>
+      <c r="P35">
+        <f>(1-P13)*VLOOKUP($A13,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>6.2200014118629987</v>
+      </c>
+      <c r="Q35">
+        <f>(1-Q13)*VLOOKUP($A13,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>6.3406580782780582</v>
+      </c>
+      <c r="R35">
+        <f>(1-R13)*VLOOKUP($A13,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>6.3150811832275844</v>
+      </c>
+      <c r="S35">
+        <f>(1-S13)*VLOOKUP($A13,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>3.4829093826834945</v>
+      </c>
+      <c r="T35">
+        <f>(1-T13)*VLOOKUP($A13,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>3.5598565245723512</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="0"/>
+        <v>73.395462130909465</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A36" s="4" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B36">
+        <f>(1-B14)*VLOOKUP($A14,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>-0.62754393851313395</v>
+      </c>
+      <c r="C36">
+        <f>(1-C14)*VLOOKUP($A14,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>-0.59439548386770813</v>
+      </c>
+      <c r="D36">
+        <f>(1-D14)*VLOOKUP($A14,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>-0.62554027013666513</v>
+      </c>
+      <c r="E36">
+        <f>(1-E14)*VLOOKUP($A14,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>-0.56870829867205808</v>
+      </c>
+      <c r="F36">
+        <f>(1-F14)*VLOOKUP($A14,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>-0.64846792889167237</v>
+      </c>
+      <c r="G36">
+        <f>(1-G14)*VLOOKUP($A14,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>-0.68219633731413643</v>
+      </c>
+      <c r="H36">
+        <f>(1-H14)*VLOOKUP($A14,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>-0.63130611668681658</v>
+      </c>
+      <c r="I36">
+        <f>(1-I14)*VLOOKUP($A14,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>-0.64778380259935286</v>
+      </c>
+      <c r="J36">
+        <f>(1-J14)*VLOOKUP($A14,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>-0.61992390652013329</v>
+      </c>
+      <c r="K36">
+        <f>(1-K14)*VLOOKUP($A14,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>-0.65145691964219754</v>
+      </c>
+      <c r="L36">
+        <f>(1-L14)*VLOOKUP($A14,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>-0.50520770991342168</v>
+      </c>
+      <c r="M36">
+        <f>(1-M14)*VLOOKUP($A14,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>-0.50498122767353515</v>
+      </c>
+      <c r="N36">
+        <f>(1-N14)*VLOOKUP($A14,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <f>(1-O14)*VLOOKUP($A14,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>-0.2521764173931616</v>
+      </c>
+      <c r="P36">
+        <f>(1-P14)*VLOOKUP($A14,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>-0.20802351849462689</v>
+      </c>
+      <c r="Q36">
+        <f>(1-Q14)*VLOOKUP($A14,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>-9.2007154928079093E-2</v>
+      </c>
+      <c r="R36">
+        <f>(1-R14)*VLOOKUP($A14,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>-8.1785840265821808E-2</v>
+      </c>
+      <c r="S36">
+        <f>(1-S14)*VLOOKUP($A14,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>-0.61515776975435177</v>
+      </c>
+      <c r="T36">
+        <f>(1-T14)*VLOOKUP($A14,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>-0.61144983834852329</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="0"/>
+        <v>-9.1681124796153952</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A37" s="4" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B37">
+        <f>(1-B15)*VLOOKUP($A15,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>3.2505504910988172</v>
+      </c>
+      <c r="C37">
+        <f>(1-C15)*VLOOKUP($A15,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>3.2092588982626182</v>
+      </c>
+      <c r="D37">
+        <f>(1-D15)*VLOOKUP($A15,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>3.2605211673188825</v>
+      </c>
+      <c r="E37">
+        <f>(1-E15)*VLOOKUP($A15,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>3.018954688318531</v>
+      </c>
+      <c r="F37">
+        <f>(1-F15)*VLOOKUP($A15,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>3.4963376112899818</v>
+      </c>
+      <c r="G37">
+        <f>(1-G15)*VLOOKUP($A15,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>3.5930069210956965</v>
+      </c>
+      <c r="H37">
+        <f>(1-H15)*VLOOKUP($A15,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>3.2748921132694493</v>
+      </c>
+      <c r="I37">
+        <f>(1-I15)*VLOOKUP($A15,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>3.3881477235087014</v>
+      </c>
+      <c r="J37">
+        <f>(1-J15)*VLOOKUP($A15,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>3.2236501951715488</v>
+      </c>
+      <c r="K37">
+        <f>(1-K15)*VLOOKUP($A15,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>3.3930921877047586</v>
+      </c>
+      <c r="L37">
+        <f>(1-L15)*VLOOKUP($A15,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>2.6651558528146908</v>
+      </c>
+      <c r="M37">
+        <f>(1-M15)*VLOOKUP($A15,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>2.6097341659068145</v>
+      </c>
+      <c r="N37">
+        <f>(1-N15)*VLOOKUP($A15,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>1.3708611810598579</v>
+      </c>
+      <c r="O37">
+        <f>(1-O15)*VLOOKUP($A15,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <f>(1-P15)*VLOOKUP($A15,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>1.6704648938683226</v>
+      </c>
+      <c r="Q37">
+        <f>(1-Q15)*VLOOKUP($A15,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>1.3101103667424587</v>
+      </c>
+      <c r="R37">
+        <f>(1-R15)*VLOOKUP($A15,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>1.3107226263422547</v>
+      </c>
+      <c r="S37">
+        <f>(1-S15)*VLOOKUP($A15,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>3.284082585804569</v>
+      </c>
+      <c r="T37">
+        <f>(1-T15)*VLOOKUP($A15,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>3.2567394011801127</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="0"/>
+        <v>50.586283070758064</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A38" s="4" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B38">
+        <f>(1-B16)*VLOOKUP($A16,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>-1.9963584484024692</v>
+      </c>
+      <c r="C38">
+        <f>(1-C16)*VLOOKUP($A16,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>-1.9195342807642761</v>
+      </c>
+      <c r="D38">
+        <f>(1-D16)*VLOOKUP($A16,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>-1.9674136726862232</v>
+      </c>
+      <c r="E38">
+        <f>(1-E16)*VLOOKUP($A16,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>-1.8444276707433005</v>
+      </c>
+      <c r="F38">
+        <f>(1-F16)*VLOOKUP($A16,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>-1.9554183124687088</v>
+      </c>
+      <c r="G38">
+        <f>(1-G16)*VLOOKUP($A16,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>-2.1268296867785845</v>
+      </c>
+      <c r="H38">
+        <f>(1-H16)*VLOOKUP($A16,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>-1.966776534714574</v>
+      </c>
+      <c r="I38">
+        <f>(1-I16)*VLOOKUP($A16,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>-2.0081513440148071</v>
+      </c>
+      <c r="J38">
+        <f>(1-J16)*VLOOKUP($A16,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>-1.9791591348843289</v>
+      </c>
+      <c r="K38">
+        <f>(1-K16)*VLOOKUP($A16,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>-1.9883284203327622</v>
+      </c>
+      <c r="L38">
+        <f>(1-L16)*VLOOKUP($A16,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>-1.5780271905281973</v>
+      </c>
+      <c r="M38">
+        <f>(1-M16)*VLOOKUP($A16,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>-1.5515744501113717</v>
+      </c>
+      <c r="N38">
+        <f>(1-N16)*VLOOKUP($A16,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>-0.60427134276376016</v>
+      </c>
+      <c r="O38">
+        <f>(1-O16)*VLOOKUP($A16,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>-0.89262265628882886</v>
+      </c>
+      <c r="P38">
+        <f>(1-P16)*VLOOKUP($A16,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <f>(1-Q16)*VLOOKUP($A16,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>-0.36660852688864232</v>
+      </c>
+      <c r="R38">
+        <f>(1-R16)*VLOOKUP($A16,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>-0.63074199716478263</v>
+      </c>
+      <c r="S38">
+        <f>(1-S16)*VLOOKUP($A16,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>-1.8925679625596228</v>
+      </c>
+      <c r="T38">
+        <f>(1-T16)*VLOOKUP($A16,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>-1.8762865698243658</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="0"/>
+        <v>-29.145098201919609</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A39" s="4" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B39">
+        <f>(1-B17)*VLOOKUP($A17,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>-1.1350914539071748</v>
+      </c>
+      <c r="C39">
+        <f>(1-C17)*VLOOKUP($A17,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>-1.0531854857198852</v>
+      </c>
+      <c r="D39">
+        <f>(1-D17)*VLOOKUP($A17,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>-1.1136311138771966</v>
+      </c>
+      <c r="E39">
+        <f>(1-E17)*VLOOKUP($A17,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>-1.0277675234489669</v>
+      </c>
+      <c r="F39">
+        <f>(1-F17)*VLOOKUP($A17,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>-1.1342577611841003</v>
+      </c>
+      <c r="G39">
+        <f>(1-G17)*VLOOKUP($A17,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>-1.2282822783071832</v>
+      </c>
+      <c r="H39">
+        <f>(1-H17)*VLOOKUP($A17,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>-1.1109880218137198</v>
+      </c>
+      <c r="I39">
+        <f>(1-I17)*VLOOKUP($A17,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>-1.1564498173564242</v>
+      </c>
+      <c r="J39">
+        <f>(1-J17)*VLOOKUP($A17,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>-1.1073221653327905</v>
+      </c>
+      <c r="K39">
+        <f>(1-K17)*VLOOKUP($A17,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>-1.1508585577434318</v>
+      </c>
+      <c r="L39">
+        <f>(1-L17)*VLOOKUP($A17,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>-0.88409759222892759</v>
+      </c>
+      <c r="M39">
+        <f>(1-M17)*VLOOKUP($A17,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>-0.86893872328051514</v>
+      </c>
+      <c r="N39">
+        <f>(1-N17)*VLOOKUP($A17,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>-0.146829676971891</v>
+      </c>
+      <c r="O39">
+        <f>(1-O17)*VLOOKUP($A17,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>-0.38460162679869614</v>
+      </c>
+      <c r="P39">
+        <f>(1-P17)*VLOOKUP($A17,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>-0.20140731642281254</v>
+      </c>
+      <c r="Q39">
+        <f>(1-Q17)*VLOOKUP($A17,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <f>(1-R17)*VLOOKUP($A17,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>-0.12334973880965731</v>
+      </c>
+      <c r="S39">
+        <f>(1-S17)*VLOOKUP($A17,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>-1.10245306060168</v>
+      </c>
+      <c r="T39">
+        <f>(1-T17)*VLOOKUP($A17,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>-1.0944140845223644</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="0"/>
+        <v>-16.023925998327417</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A40" s="4" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B40">
+        <f>(1-B18)*VLOOKUP($A18,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>1.5325271018488165</v>
+      </c>
+      <c r="C40">
+        <f>(1-C18)*VLOOKUP($A18,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>1.4314078070131317</v>
+      </c>
+      <c r="D40">
+        <f>(1-D18)*VLOOKUP($A18,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>1.4961384737204351</v>
+      </c>
+      <c r="E40">
+        <f>(1-E18)*VLOOKUP($A18,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>1.406540087327369</v>
+      </c>
+      <c r="F40">
+        <f>(1-F18)*VLOOKUP($A18,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>1.5554732446868553</v>
+      </c>
+      <c r="G40">
+        <f>(1-G18)*VLOOKUP($A18,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>1.6628147012468111</v>
+      </c>
+      <c r="H40">
+        <f>(1-H18)*VLOOKUP($A18,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>1.5057765578686149</v>
+      </c>
+      <c r="I40">
+        <f>(1-I18)*VLOOKUP($A18,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>1.5678781307054404</v>
+      </c>
+      <c r="J40">
+        <f>(1-J18)*VLOOKUP($A18,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>1.4845120442296731</v>
+      </c>
+      <c r="K40">
+        <f>(1-K18)*VLOOKUP($A18,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>1.5734782326818451</v>
+      </c>
+      <c r="L40">
+        <f>(1-L18)*VLOOKUP($A18,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>1.2255694741386647</v>
+      </c>
+      <c r="M40">
+        <f>(1-M18)*VLOOKUP($A18,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>1.1983370304460321</v>
+      </c>
+      <c r="N40">
+        <f>(1-N18)*VLOOKUP($A18,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>0.18072389855073503</v>
+      </c>
+      <c r="O40">
+        <f>(1-O18)*VLOOKUP($A18,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>0.53279391359588613</v>
+      </c>
+      <c r="P40">
+        <f>(1-P18)*VLOOKUP($A18,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>0.47981039723129826</v>
+      </c>
+      <c r="Q40">
+        <f>(1-Q18)*VLOOKUP($A18,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>0.1707982666761759</v>
+      </c>
+      <c r="R40">
+        <f>(1-R18)*VLOOKUP($A18,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <f>(1-S18)*VLOOKUP($A18,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>1.516335882107827</v>
+      </c>
+      <c r="T40">
+        <f>(1-T18)*VLOOKUP($A18,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>1.5052191679531242</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="0"/>
+        <v>22.026134412028735</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A41" s="4" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B41">
+        <f>(1-B19)*VLOOKUP($A19,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>0.6355769432539532</v>
+      </c>
+      <c r="C41">
+        <f>(1-C19)*VLOOKUP($A19,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>1.4213456734980865</v>
+      </c>
+      <c r="D41">
+        <f>(1-D19)*VLOOKUP($A19,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>0.98470071403065706</v>
+      </c>
+      <c r="E41">
+        <f>(1-E19)*VLOOKUP($A19,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>1.5608898013832988</v>
+      </c>
+      <c r="F41">
+        <f>(1-F19)*VLOOKUP($A19,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>1.4866418620586885</v>
+      </c>
+      <c r="G41">
+        <f>(1-G19)*VLOOKUP($A19,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>0.99203838607380168</v>
+      </c>
+      <c r="H41">
+        <f>(1-H19)*VLOOKUP($A19,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>1.3138337069264641</v>
+      </c>
+      <c r="I41">
+        <f>(1-I19)*VLOOKUP($A19,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>0.80670126400528808</v>
+      </c>
+      <c r="J41">
+        <f>(1-J19)*VLOOKUP($A19,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>1.1039170302962615</v>
+      </c>
+      <c r="K41">
+        <f>(1-K19)*VLOOKUP($A19,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>0.84960077420408298</v>
+      </c>
+      <c r="L41">
+        <f>(1-L19)*VLOOKUP($A19,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>1.6773579519508508</v>
+      </c>
+      <c r="M41">
+        <f>(1-M19)*VLOOKUP($A19,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>2.3223682320639325</v>
+      </c>
+      <c r="N41">
+        <f>(1-N19)*VLOOKUP($A19,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>4.7765336898015658</v>
+      </c>
+      <c r="O41">
+        <f>(1-O19)*VLOOKUP($A19,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>4.690848354799857</v>
+      </c>
+      <c r="P41">
+        <f>(1-P19)*VLOOKUP($A19,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>5.0589251611736845</v>
+      </c>
+      <c r="Q41">
+        <f>(1-Q19)*VLOOKUP($A19,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>5.3640670421160941</v>
+      </c>
+      <c r="R41">
+        <f>(1-R19)*VLOOKUP($A19,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>5.328246116021198</v>
+      </c>
+      <c r="S41">
+        <f>(1-S19)*VLOOKUP($A19,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <f>(1-T19)*VLOOKUP($A19,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>7.0529988451626266E-2</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="0"/>
+        <v>40.444122692109396</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A42" s="4" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B42">
+        <f>(1-B20)*VLOOKUP($A20,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>0.55263587176132056</v>
+      </c>
+      <c r="C42">
+        <f>(1-C20)*VLOOKUP($A20,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>1.2022001269312634</v>
+      </c>
+      <c r="D42">
+        <f>(1-D20)*VLOOKUP($A20,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>0.83899229040953338</v>
+      </c>
+      <c r="E42">
+        <f>(1-E20)*VLOOKUP($A20,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>1.3763251979738094</v>
+      </c>
+      <c r="F42">
+        <f>(1-F20)*VLOOKUP($A20,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>1.265311588778349</v>
+      </c>
+      <c r="G42">
+        <f>(1-G20)*VLOOKUP($A20,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>0.90680213820219235</v>
+      </c>
+      <c r="H42">
+        <f>(1-H20)*VLOOKUP($A20,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>1.152248931603308</v>
+      </c>
+      <c r="I42">
+        <f>(1-I20)*VLOOKUP($A20,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>0.73016897634426348</v>
+      </c>
+      <c r="J42">
+        <f>(1-J20)*VLOOKUP($A20,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>0.90980402558281082</v>
+      </c>
+      <c r="K42">
+        <f>(1-K20)*VLOOKUP($A20,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>0.72513885856456661</v>
+      </c>
+      <c r="L42">
+        <f>(1-L20)*VLOOKUP($A20,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>1.4647694148710513</v>
+      </c>
+      <c r="M42">
+        <f>(1-M20)*VLOOKUP($A20,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>2.0409390326785868</v>
+      </c>
+      <c r="N42">
+        <f>(1-N20)*VLOOKUP($A20,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>4.0822142663213645</v>
+      </c>
+      <c r="O42">
+        <f>(1-O20)*VLOOKUP($A20,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>3.9997142192388018</v>
+      </c>
+      <c r="P42">
+        <f>(1-P20)*VLOOKUP($A20,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>4.3123556481167995</v>
+      </c>
+      <c r="Q42">
+        <f>(1-Q20)*VLOOKUP($A20,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>4.5785123855315577</v>
+      </c>
+      <c r="R42">
+        <f>(1-R20)*VLOOKUP($A20,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>4.5477568340344305</v>
+      </c>
+      <c r="S42">
+        <f>(1-S20)*VLOOKUP($A20,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>6.06432464839681E-2</v>
+      </c>
+      <c r="T42">
+        <f>(1-T20)*VLOOKUP($A20,Sheet1!$A$2:$C$20,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <f t="shared" si="0"/>
+        <v>34.746533053427974</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4867B025-19EF-4F95-B7D5-7116780CBCA9}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -18819,12 +22288,12 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="30.42578125" customWidth="1"/>
+    <col min="2" max="2" width="30.3828125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -18838,7 +22307,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1154</v>
       </c>
@@ -18849,7 +22318,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>1156</v>
       </c>
@@ -18860,7 +22329,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>1158</v>
       </c>
